--- a/results/manual_perceptron_wyniki_classification_train_test.xlsx
+++ b/results/manual_perceptron_wyniki_classification_train_test.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,7 +524,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D2" t="n">
         <v>20</v>
@@ -536,34 +536,34 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3828194111065994</v>
+        <v>0.4238495389115683</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8219967532467533</v>
+        <v>0.8027597402597403</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8247679286932674</v>
+        <v>0.8056252238278101</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8228189697073057</v>
+        <v>0.8036416480397929</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8236613549227313</v>
+        <v>0.8045002898859848</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3763351092476904</v>
+        <v>0.4208042550515327</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8219623131903834</v>
+        <v>0.8034437946718649</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8245720217733563</v>
+        <v>0.8057270787533946</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8219623131903833</v>
+        <v>0.8034437946718649</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8232650993261249</v>
+        <v>0.8045838168143693</v>
       </c>
     </row>
     <row r="3">
@@ -574,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D3" t="n">
         <v>20</v>
@@ -586,34 +586,34 @@
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3765143191740521</v>
+        <v>0.3876996402026942</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8263257575757577</v>
+        <v>0.8207521645021645</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8292936383175311</v>
+        <v>0.8239374904709985</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8270887499488481</v>
+        <v>0.8214715495199716</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8280551207965623</v>
+        <v>0.8225736527410089</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3743111235045666</v>
+        <v>0.3824308599672786</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8232618583495777</v>
+        <v>0.8209876543209876</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8265314173246816</v>
+        <v>0.8241917656811274</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8232618583495777</v>
+        <v>0.8209876543209876</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8248933980324676</v>
+        <v>0.8225865898764427</v>
       </c>
     </row>
     <row r="4">
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>0.01</v>
@@ -636,34 +636,34 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3806390923324499</v>
+        <v>0.3829670253673618</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8235119047619047</v>
+        <v>0.821672077922078</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8266362949630821</v>
+        <v>0.8247803112109469</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8243614540138001</v>
+        <v>0.8226482438121919</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8253571351641871</v>
+        <v>0.8235776112923586</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3769187108513139</v>
+        <v>0.3764813695656855</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8206627680311891</v>
+        <v>0.8196881091617934</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8231123155496657</v>
+        <v>0.8220936247252038</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8206627680311891</v>
+        <v>0.8196881091617934</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8218857166371246</v>
+        <v>0.8208891046796707</v>
       </c>
     </row>
     <row r="5">
@@ -671,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D5" t="n">
         <v>20</v>
@@ -686,45 +686,45 @@
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3757670028047642</v>
+        <v>0.3805203628289267</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8263798701298701</v>
+        <v>0.8215367965367966</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8294339948549666</v>
+        <v>0.82458156399215</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8275445521172765</v>
+        <v>0.8219623805614833</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8283521650040484</v>
+        <v>0.8231335114128395</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3763385466748554</v>
+        <v>0.3739394793729843</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8261858349577648</v>
+        <v>0.8219623131903834</v>
       </c>
       <c r="N5" t="n">
-        <v>0.830863988159477</v>
+        <v>0.8248861944312491</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8261858349577648</v>
+        <v>0.8219623131903833</v>
       </c>
       <c r="P5" t="n">
-        <v>0.82851830791971</v>
+        <v>0.8234216582224937</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D6" t="n">
         <v>20</v>
@@ -733,48 +733,48 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3831071229791099</v>
+        <v>0.4174661265844151</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8221861471861472</v>
+        <v>0.8045454545454546</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8252626205638173</v>
+        <v>0.8085052395376512</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8227705174235694</v>
+        <v>0.805396865509408</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8238768917346533</v>
+        <v>0.8068117428213623</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3774198284157111</v>
+        <v>0.4133593140707976</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8209876543209876</v>
+        <v>0.806367771280052</v>
       </c>
       <c r="N6" t="n">
-        <v>0.824905553941093</v>
+        <v>0.8093857083836264</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8209876543209876</v>
+        <v>0.806367771280052</v>
       </c>
       <c r="P6" t="n">
-        <v>0.822941941028551</v>
+        <v>0.8078739213497887</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D7" t="n">
         <v>20</v>
@@ -783,42 +783,42 @@
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3754217139730102</v>
+        <v>0.3849630913153452</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8262445887445888</v>
+        <v>0.8204274891774891</v>
       </c>
       <c r="I7" t="n">
-        <v>0.831011521479773</v>
+        <v>0.8235259308762969</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8273182217299764</v>
+        <v>0.8211444169343241</v>
       </c>
       <c r="K7" t="n">
-        <v>0.828992346630545</v>
+        <v>0.8222003960579622</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3722579696406878</v>
+        <v>0.3801833903733495</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8200129954515919</v>
+        <v>0.8235867446393762</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8281262378477176</v>
+        <v>0.8263258736971183</v>
       </c>
       <c r="O7" t="n">
-        <v>0.820012995451592</v>
+        <v>0.8235867446393762</v>
       </c>
       <c r="P7" t="n">
-        <v>0.824049647249968</v>
+        <v>0.8249540354635941</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
         <v>16</v>
@@ -833,48 +833,48 @@
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3787563361187023</v>
+        <v>0.3806655577638391</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8234036796536797</v>
+        <v>0.8236471861471862</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8265858595730622</v>
+        <v>0.82637715449728</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8247844717617558</v>
+        <v>0.8243942578846104</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8255493933510819</v>
+        <v>0.8252498210139432</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3758454274089407</v>
+        <v>0.3752245232443722</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8219623131903834</v>
+        <v>0.8242365172189734</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8261311368141491</v>
+        <v>0.8269811465358676</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8219623131903833</v>
+        <v>0.8242365172189734</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8240414525189594</v>
+        <v>0.8256065508365098</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D9" t="n">
         <v>20</v>
@@ -883,37 +883,2837 @@
         <v>2</v>
       </c>
       <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.3787371856465918</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.825487012987013</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.828211674087311</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.8265074986999518</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.8272226424114969</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.3746397127867818</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.8216374269005848</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.8245988771628421</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.8216374269005848</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.823115488323097</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.3660648768018602</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.8307088744588745</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.8347985183942502</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.8320851011580068</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.8332772391911517</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.3714693425967804</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8258609486679662</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.8333051911344732</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.8258609486679662</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.8295663697213611</v>
+      <c r="B10" t="n">
+        <v>32</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4150088237662992</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8072510822510823</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.8106985224162101</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8081957497155033</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.809314392584481</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.411866099086685</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.8076673164392463</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.8098783775106617</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.8076673164392463</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.8087713357993873</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>32</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.38458345015888</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.8212121212121213</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.8246327052941453</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.8218314336354737</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.823085283524754</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.3803641814696704</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8200129954515919</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.8227607642279262</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.820012995451592</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.821384581826048</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>32</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.3801670494371374</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8228354978354979</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.8259339719007597</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.8240542351036816</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.8248583153792191</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.3752706533447354</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.8245614035087719</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.8268938744806242</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.8245614035087718</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.8257259918350968</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>32</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3759889648732701</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8261363636363637</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.8290707744815322</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8272612947254497</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8280233433687226</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.3752791654136673</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8216374269005848</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.8251963630154528</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.8216374269005848</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.8234130493889191</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>64</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>20</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4062943788438467</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8116883116883117</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.8149860797024226</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.8127173931374417</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.8137130485443582</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.4028819864857049</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.8141650422352177</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.8168625979780757</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.8141650422352176</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.8155115893636455</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>64</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D15" t="n">
+        <v>20</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3819100783332286</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.821590909090909</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.8248040432031776</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.8226554861402073</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.8235870566718574</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.3786437927623668</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.8235867446393762</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.8257356041235991</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.8235867446393762</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.8246597745347305</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>64</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3781030235358722</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8248647186147187</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8278932100651537</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.8258716927776676</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.8267427645338147</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.3762811732950954</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8216374269005848</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.8242065545640562</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.8216374269005848</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.8229199855553337</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>64</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D17" t="n">
+        <v>20</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3739938602511209</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8274621212121213</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8302972576910135</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.8286864409430249</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.8293517024545095</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.3741956128497364</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8235867446393762</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.8270778921493317</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.8235867446393762</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.8253286265145303</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>20</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.4319062206836599</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.7997564935064935</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.803312647735313</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.8010263151339414</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.8020294752888962</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.4294486629081166</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.799545159194282</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.8015343644597976</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.7995451591942819</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.8005385261177793</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D19" t="n">
+        <v>20</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.384746372694073</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8205898268398268</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8230612436790943</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.821146510284865</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8219709162353158</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3801346428410823</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.8206627680311891</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.8234161160334651</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.8206627680311891</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.8220371365087615</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D20" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3828318848308511</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8223214285714285</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8253738320962912</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.8231604113977364</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.8241333396509302</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.3764518845453999</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.8206627680311891</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.8252108742111084</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.8206627680311891</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.822930537142448</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3796018765707649</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8253246753246753</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8287040063760087</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.8262529135305868</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.8273304373231219</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.3770723416499429</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.8242365172189734</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.8276463049176747</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.8242365172189734</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.8259378918561879</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="n">
+        <v>16</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.4202642169971084</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8041396103896103</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8061271398283554</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.8049675424317888</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.8054408756910347</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.4155206224632413</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8044184535412605</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.8053720154587325</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.8044184535412606</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.8048949520780454</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D23" t="n">
+        <v>20</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3823998404816151</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8210768398268398</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8243279362546031</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.8219807707503836</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.8230098040214165</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.3784845294561235</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.8219623131903834</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.8249676022972645</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.8219623131903834</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.8234622157441398</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="n">
+        <v>16</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D24" t="n">
+        <v>20</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3791024561666124</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8245941558441559</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8271814298140594</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.825493701831274</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.8261993215840853</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.3736415548738343</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8245614035087719</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.8275909532744372</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.8245614035087719</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.8260734007507456</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D25" t="n">
+        <v>20</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.377910572656495</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8248376623376623</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8277889121529275</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.8260442401539865</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.8267838976618475</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3739304197014661</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.8248862897985705</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.8293415736492502</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.8248862897985705</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.8271079320806239</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="n">
+        <v>32</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D26" t="n">
+        <v>20</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.4064123026448466</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.8130681818181819</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.8155880362730211</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.8139993383164458</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.8146695720953332</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.4016031290927604</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8151397011046134</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.8175109918530972</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.8151397011046133</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.8163236244265393</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="n">
+        <v>32</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D27" t="n">
+        <v>20</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.3802226063389725</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.8255952380952382</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.8283159530318382</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.8266054954518128</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.8273287813626193</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.3759276824700277</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8235867446393762</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.8261714427735353</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.8235867446393762</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.8248770689659526</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="n">
+        <v>32</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D28" t="n">
+        <v>20</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.3763382180638383</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8252705627705628</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8285434354249148</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8263119608479567</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8272900133025861</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.3765209092539518</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8229369720597791</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8267848170921358</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.822936972059779</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8248564071795096</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="n">
+        <v>32</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.3738870514354319</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.8272727272727273</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.8307164906466843</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.8283765664977815</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.8293886225151766</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.3772976915392505</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8222871994801819</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.8269094385002005</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.8222871994801819</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.8245918415656481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" t="n">
+        <v>64</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>20</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.4011049008250605</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.8155032467532467</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.8186364246363643</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.8164619466480775</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.8174033391051542</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.3984658443097147</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.8161143599740091</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.8183861259956431</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.8161143599740091</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.8172486642392395</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" t="n">
+        <v>64</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D31" t="n">
+        <v>20</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.3772122687424579</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.8244588744588746</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.8270785826545953</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.8253916607008375</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.8261005836336147</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.3761300932080686</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.8206627680311891</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.8233384605101661</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.8206627680311891</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.8219984368604306</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" t="n">
+        <v>64</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D32" t="n">
+        <v>20</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.3737223930665118</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.8277597402597403</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.8307487722119116</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.828832361652213</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.8296486608396586</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.3745514394488632</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.8232618583495777</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.8268838399557354</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.8232618583495777</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.8250688741246427</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" t="n">
+        <v>64</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D33" t="n">
+        <v>20</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.3697393247378802</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8293831168831168</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.8328915691484441</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.8305290506107316</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.8315532193639577</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.3763966066405683</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.8239116309291747</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.8287130049166105</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.8239116309291747</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.8263053432016925</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="n">
+        <v>8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>20</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.6626576318876328</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.7680194805194805</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.7714617758990545</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.7694006034472127</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.7703120361879676</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.6610588137806559</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.7662934626203521</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.763157894736842</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.7647224645240884</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D35" t="n">
+        <v>20</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.3883039143040477</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.8204816017316018</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.8237975300202842</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.821063981293969</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8222880699834235</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.3817455763870747</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8200129954515919</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.8226832660613107</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.8200129954515919</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.8213459604388776</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D36" t="n">
+        <v>20</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.3821507508590589</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.8224296536796537</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.8256933540371681</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.8236516432926834</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.824538656584541</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.3756293003248833</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.8239116309291747</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.8280086210103137</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.8239116309291747</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.8259550454194861</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D37" t="n">
+        <v>20</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.3821552029395963</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.8239448051948052</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.8281784068274742</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.8250783699798822</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.8264707827945204</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.3801678635650409</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.8222871994801819</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.8271167730566964</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.8222871994801819</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.8246949155988763</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="n">
+        <v>16</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D38" t="n">
+        <v>20</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.4292733852713846</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.8007034632034632</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.803469610640169</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.8014899310760064</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.8023627473308825</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.4255390619707615</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.8021442495126706</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.8035036930979613</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.8021442495126705</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.8028233958096508</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="n">
+        <v>16</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D39" t="n">
+        <v>20</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.3823930640187604</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.8218073593073593</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.8247909462025576</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.8229105282221063</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8237108346777203</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.3763173987434174</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8219623131903834</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.824726819644543</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.8219623131903833</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.8233422458531918</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="n">
+        <v>16</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D40" t="n">
+        <v>20</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.3804209038422249</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.8238636363636364</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.8276571073098362</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.8251949718974576</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.8262801474046606</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.3787120298083841</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.8235867446393762</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.8277279662292525</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.8235867446393762</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.8256521626881518</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="n">
+        <v>16</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D41" t="n">
+        <v>20</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.377864787232615</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.8255681818181818</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.828749461692889</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.826525849627011</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.8274830551776517</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.3784532380637466</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.8219623131903834</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.8277205128701</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.8219623131903834</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.8248313635640571</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" t="n">
+        <v>32</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>20</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.4129752617600614</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.812012987012987</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.816072021705049</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.8128252993242648</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.8142794423862393</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.4107458813252262</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.8105912930474334</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.8132961851254987</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.8105912930474334</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.8119414863315022</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="n">
+        <v>32</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D43" t="n">
+        <v>20</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.3785724590739235</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.8244859307359307</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.8272258027823497</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.8256196074538927</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.8262872544370853</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.3767251865407971</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.8190383365821963</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.8225685136173482</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.8190383365821963</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.8207996293828203</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="n">
+        <v>32</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D44" t="n">
+        <v>20</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.3742318889835453</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8278409090909091</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.8313149273096379</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.82896298792885</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.8299839603303246</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.3751003718147037</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.8209876543209876</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.8254897763468849</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.8209876543209876</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.8232325600407151</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="n">
+        <v>32</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D45" t="n">
+        <v>20</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.3718017383705854</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8287337662337663</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.8323781549534706</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.8297387530798019</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.830897708529913</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.3762844430811442</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.8206627680311891</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.8269851144668439</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.8206627680311891</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.8238118112105304</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="n">
+        <v>64</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>20</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.3929377880460825</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.8172348484848485</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.8205900803009436</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.8182935019726765</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.8192925103899671</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.3905846476856435</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.815464587394412</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.8179474686439505</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.815464587394412</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.8167041409572864</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="n">
+        <v>64</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D47" t="n">
+        <v>20</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.37515525622622</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8257305194805195</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.8289863798304909</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.8268768859436386</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.8277847811330987</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.3741955075701607</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.8245614035087719</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.8282893289916191</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.8245614035087719</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.8264211621717109</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="n">
+        <v>64</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D48" t="n">
+        <v>20</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.3711878800344078</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.8306006493506494</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.8338269769163905</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.8314990136338979</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.8325203854344417</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.3746220836207388</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8222871994801819</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.8272222222222223</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.8222871994801819</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.8247473285200848</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" t="n">
+        <v>64</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D49" t="n">
+        <v>20</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.3660524051222671</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.829978354978355</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.8336103744272945</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.8313042771120347</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.8322862801305551</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.3767054180060924</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.8226120857699805</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.8294676223257909</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.8226120857699806</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.8260256300424585</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>4</v>
+      </c>
+      <c r="B50" t="n">
+        <v>8</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>20</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.6928677925270883</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.6133658008658008</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.6079101410348334</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.6168680893512355</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.5978246124698594</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.6928645497483952</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.6751137102014295</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.6957783283715384</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.6751137102014295</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.6852902716301766</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>4</v>
+      </c>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D51" t="n">
+        <v>20</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.4187236023794786</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.8132034632034632</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.8168155746940686</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.8134525067011205</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.8149756261493466</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.4124632748763732</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.8141650422352177</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.818328203307316</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.8141650422352177</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.8162413143541695</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>4</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D52" t="n">
+        <v>20</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.3841599383068893</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.8232142857142857</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.8273795068426144</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.8240251572081936</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.8255463105420128</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.3764697169928566</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.8229369720597791</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.8273655242073547</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.822936972059779</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.8251453061701487</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>4</v>
+      </c>
+      <c r="B53" t="n">
+        <v>8</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D53" t="n">
+        <v>20</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.3806914936255505</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.8231601731601732</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.8277870419131762</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.8244665588980152</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.8259705735408076</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.3772819760664107</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8226120857699805</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.8310709898808711</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.8226120857699806</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.826819903372062</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>4</v>
+      </c>
+      <c r="B54" t="n">
+        <v>16</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D54" t="n">
+        <v>20</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.6863163225041149</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.7452380952380953</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.7465907766719717</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.7474043551105922</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.7469168769499178</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.6862674294547331</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.7342430149447693</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.7346746102746635</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.7342430149447694</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.7344587492043472</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4</v>
+      </c>
+      <c r="B55" t="n">
+        <v>16</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D55" t="n">
+        <v>20</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.3835826885458933</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.8225649350649351</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.825754793684191</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.8237346097220054</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.8246075466930504</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.3761237611090942</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.8235867446393762</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.8264048121181974</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.8235867446393762</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.8249933718500132</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>4</v>
+      </c>
+      <c r="B56" t="n">
+        <v>16</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D56" t="n">
+        <v>20</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.3793721805397107</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.8265692640692641</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.8301988594582728</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.8276950917519849</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.8287982527620731</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.3762901958011829</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.8196881091617934</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.8247960769914451</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.8196881091617934</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.8222341600920492</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>4</v>
+      </c>
+      <c r="B57" t="n">
+        <v>16</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D57" t="n">
+        <v>20</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.3772732485776947</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.8270562770562772</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.8313050741754096</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.8287087230906236</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.8298470666068712</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.3775816798666355</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.8200129954515919</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.8263225306482688</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.820012995451592</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.8231556724906954</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>4</v>
+      </c>
+      <c r="B58" t="n">
+        <v>32</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D58" t="n">
+        <v>20</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.4170773658788105</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.8071699134199135</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.8106614710131689</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.8080588329742583</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.8092198262626028</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.4116206936645893</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.8109161793372319</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.8131505884664239</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.8109161793372319</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.8120318468393575</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>4</v>
+      </c>
+      <c r="B59" t="n">
+        <v>32</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D59" t="n">
+        <v>20</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.3780674011331092</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.8253246753246753</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.8290271795279522</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.8264739399501674</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.8276010522968363</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.3770925925405863</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.8209876543209876</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.8257977538105001</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.8209876543209876</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.823385679150116</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>4</v>
+      </c>
+      <c r="B60" t="n">
+        <v>32</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D60" t="n">
+        <v>20</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.3745817549172785</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.8279491341991343</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.8315392952460109</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.8293804268626643</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.8302967196941768</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.3755058773644762</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.8239116309291747</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.8299383681029666</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.8239116309291747</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.8269140186045663</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>4</v>
+      </c>
+      <c r="B61" t="n">
+        <v>32</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D61" t="n">
+        <v>20</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3671328542373192</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.8293560606060606</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.8339941072813429</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.830765372168653</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.832207869207346</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.3771312962936595</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.8206627680311891</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.8299351377979693</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.8206627680311891</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.8252729087639147</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>4</v>
+      </c>
+      <c r="B62" t="n">
+        <v>64</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D62" t="n">
+        <v>20</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.3935327041475504</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.8188582251082251</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.8226914451752774</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.8196802906212162</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.8210311161504549</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.3896885484839068</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8196881091617934</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.8232254759668745</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.8196881091617934</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.8214529844018027</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>4</v>
+      </c>
+      <c r="B63" t="n">
+        <v>64</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D63" t="n">
+        <v>20</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.374295349730613</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.8267045454545454</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.8294498212964149</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.827759458229823</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.8284651584981313</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.3785665025265737</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8180636777128005</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.8229865020079994</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.8180636777128005</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.8205177061132907</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>4</v>
+      </c>
+      <c r="B64" t="n">
+        <v>64</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D64" t="n">
+        <v>20</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.3693899449307561</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.8301136363636363</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.8342041677512542</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.8314439170921406</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.832644850237912</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.3804809007703127</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.8200129954515919</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.8262028759967929</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.8200129954515919</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.8230962985440909</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>4</v>
+      </c>
+      <c r="B65" t="n">
+        <v>64</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D65" t="n">
+        <v>20</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.3646612747434997</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.830952380952381</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.8349689626338727</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.8319936234035473</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.8333124884376467</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.382439404937234</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.8167641325536062</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.8252089169694025</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.8167641325536062</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.8209648086974526</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +3755,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-13 08:53:40</t>
+          <t>2025-11-13 10:15:59</t>
         </is>
       </c>
     </row>

--- a/results/manual_perceptron_wyniki_classification_train_test.xlsx
+++ b/results/manual_perceptron_wyniki_classification_train_test.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,7 +524,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D2" t="n">
         <v>20</v>
@@ -536,34 +536,34 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3828194111065994</v>
+        <v>0.4238495389115683</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8219967532467533</v>
+        <v>0.8027597402597403</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8247679286932674</v>
+        <v>0.8056252238278101</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8228189697073057</v>
+        <v>0.8036416480397929</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8236613549227313</v>
+        <v>0.8045002898859848</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3763351092476904</v>
+        <v>0.4208042550515327</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8219623131903834</v>
+        <v>0.8034437946718649</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8245720217733563</v>
+        <v>0.8057270787533946</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8219623131903833</v>
+        <v>0.8034437946718649</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8232650993261249</v>
+        <v>0.8045838168143693</v>
       </c>
     </row>
     <row r="3">
@@ -574,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D3" t="n">
         <v>20</v>
@@ -586,34 +586,34 @@
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3765143191740521</v>
+        <v>0.3876996402026942</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8263257575757577</v>
+        <v>0.8207521645021645</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8292936383175311</v>
+        <v>0.8239374904709985</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8270887499488481</v>
+        <v>0.8214715495199716</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8280551207965623</v>
+        <v>0.8225736527410089</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3743111235045666</v>
+        <v>0.3824308599672786</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8232618583495777</v>
+        <v>0.8209876543209876</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8265314173246816</v>
+        <v>0.8241917656811274</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8232618583495777</v>
+        <v>0.8209876543209876</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8248933980324676</v>
+        <v>0.8225865898764427</v>
       </c>
     </row>
     <row r="4">
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>0.01</v>
@@ -636,34 +636,34 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3806390923324499</v>
+        <v>0.3829670253673618</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8235119047619047</v>
+        <v>0.821672077922078</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8266362949630821</v>
+        <v>0.8247803112109469</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8243614540138001</v>
+        <v>0.8226482438121919</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8253571351641871</v>
+        <v>0.8235776112923586</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3769187108513139</v>
+        <v>0.3764813695656855</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8206627680311891</v>
+        <v>0.8196881091617934</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8231123155496657</v>
+        <v>0.8220936247252038</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8206627680311891</v>
+        <v>0.8196881091617934</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8218857166371246</v>
+        <v>0.8208891046796707</v>
       </c>
     </row>
     <row r="5">
@@ -671,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D5" t="n">
         <v>20</v>
@@ -686,45 +686,45 @@
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3757670028047642</v>
+        <v>0.3805203628289267</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8263798701298701</v>
+        <v>0.8215367965367966</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8294339948549666</v>
+        <v>0.82458156399215</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8275445521172765</v>
+        <v>0.8219623805614833</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8283521650040484</v>
+        <v>0.8231335114128395</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3763385466748554</v>
+        <v>0.3739394793729843</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8261858349577648</v>
+        <v>0.8219623131903834</v>
       </c>
       <c r="N5" t="n">
-        <v>0.830863988159477</v>
+        <v>0.8248861944312491</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8261858349577648</v>
+        <v>0.8219623131903833</v>
       </c>
       <c r="P5" t="n">
-        <v>0.82851830791971</v>
+        <v>0.8234216582224937</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D6" t="n">
         <v>20</v>
@@ -733,48 +733,48 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3831071229791099</v>
+        <v>0.4174661265844151</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8221861471861472</v>
+        <v>0.8045454545454546</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8252626205638173</v>
+        <v>0.8085052395376512</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8227705174235694</v>
+        <v>0.805396865509408</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8238768917346533</v>
+        <v>0.8068117428213623</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3774198284157111</v>
+        <v>0.4133593140707976</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8209876543209876</v>
+        <v>0.806367771280052</v>
       </c>
       <c r="N6" t="n">
-        <v>0.824905553941093</v>
+        <v>0.8093857083836264</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8209876543209876</v>
+        <v>0.806367771280052</v>
       </c>
       <c r="P6" t="n">
-        <v>0.822941941028551</v>
+        <v>0.8078739213497887</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D7" t="n">
         <v>20</v>
@@ -783,42 +783,42 @@
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3754217139730102</v>
+        <v>0.3849630913153452</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8262445887445888</v>
+        <v>0.8204274891774891</v>
       </c>
       <c r="I7" t="n">
-        <v>0.831011521479773</v>
+        <v>0.8235259308762969</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8273182217299764</v>
+        <v>0.8211444169343241</v>
       </c>
       <c r="K7" t="n">
-        <v>0.828992346630545</v>
+        <v>0.8222003960579622</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3722579696406878</v>
+        <v>0.3801833903733494</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8200129954515919</v>
+        <v>0.8235867446393762</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8281262378477176</v>
+        <v>0.8263258736971183</v>
       </c>
       <c r="O7" t="n">
-        <v>0.820012995451592</v>
+        <v>0.8235867446393762</v>
       </c>
       <c r="P7" t="n">
-        <v>0.824049647249968</v>
+        <v>0.8249540354635941</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
         <v>16</v>
@@ -833,48 +833,48 @@
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3787563361187023</v>
+        <v>0.3806655577638391</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8234036796536797</v>
+        <v>0.8236471861471862</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8265858595730622</v>
+        <v>0.82637715449728</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8247844717617558</v>
+        <v>0.8243942578846104</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8255493933510819</v>
+        <v>0.8252498210139432</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3758454274089407</v>
+        <v>0.3752245232443722</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8219623131903834</v>
+        <v>0.8242365172189734</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8261311368141491</v>
+        <v>0.8269811465358676</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8219623131903833</v>
+        <v>0.8242365172189734</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8240414525189594</v>
+        <v>0.8256065508365098</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D9" t="n">
         <v>20</v>
@@ -883,37 +883,2837 @@
         <v>2</v>
       </c>
       <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.3787371856465918</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.825487012987013</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.828211674087311</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.8265074986999518</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.8272226424114969</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.3746397127867818</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.8216374269005848</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.8245988771628421</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.8216374269005848</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.823115488323097</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.3660648768018602</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.8307088744588745</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.8347985183942502</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.8320851011580068</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.8332772391911517</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.3714693425967804</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8258609486679662</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.8333051911344732</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.8258609486679662</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.8295663697213611</v>
+      <c r="B10" t="n">
+        <v>32</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4150088237662992</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8072510822510823</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.8106985224162101</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8081957497155033</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.809314392584481</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.411866099086685</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.8076673164392463</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.8098783775106617</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.8076673164392463</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.8087713357993873</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>32</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.38458345015888</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.8212121212121213</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.8246327052941453</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.8218314336354737</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.823085283524754</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.3803641814696704</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8200129954515919</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.8227607642279262</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.820012995451592</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.821384581826048</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>32</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.3801670494371374</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8228354978354979</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.8259339719007597</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.8240542351036816</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.8248583153792191</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.3752706533447355</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.8245614035087719</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.8268938744806242</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.8245614035087718</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.8257259918350968</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>32</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3759889648732701</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8261363636363637</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.8290707744815322</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8272612947254497</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8280233433687226</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.3752791654136674</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8216374269005848</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.8251963630154528</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.8216374269005848</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.8234130493889191</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>64</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>20</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4062943788438467</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8116883116883117</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.8149860797024226</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.8127173931374417</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.8137130485443582</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.4028819864857049</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.8141650422352177</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.8168625979780757</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.8141650422352176</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.8155115893636455</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>64</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D15" t="n">
+        <v>20</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3819100783332285</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.821590909090909</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.8248040432031776</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.8226554861402073</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.8235870566718574</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.3786437927623668</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.8235867446393762</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.8257356041235991</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.8235867446393762</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.8246597745347305</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>64</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3781030235358722</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8248647186147187</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8278932100651537</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.8258716927776676</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.8267427645338147</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.3762811732950954</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8216374269005848</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.8242065545640562</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.8216374269005848</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.8229199855553337</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>64</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D17" t="n">
+        <v>20</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.373993860251121</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8274621212121213</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8302972576910135</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.8286864409430249</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.8293517024545095</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.3741956128497364</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8235867446393762</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.8270778921493317</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.8235867446393762</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.8253286265145303</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>20</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.4319062206836599</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.7997564935064935</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.803312647735313</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.8010263151339414</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.8020294752888962</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.4294486629081166</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.799545159194282</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.8015343644597976</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.7995451591942819</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.8005385261177793</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D19" t="n">
+        <v>20</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.384746372694073</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8205898268398268</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8230612436790943</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.821146510284865</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8219709162353158</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3801346428410823</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.8206627680311891</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.8234161160334651</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.8206627680311891</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.8220371365087615</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D20" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3828318848308511</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8223214285714285</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8253738320962912</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.8231604113977364</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.8241333396509302</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.3764518845453999</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.8206627680311891</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.8252108742111084</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.8206627680311891</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.822930537142448</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3796018765707649</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8253246753246753</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8287040063760087</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.8262529135305868</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.8273304373231219</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.3770723416499429</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.8242365172189734</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.8276463049176747</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.8242365172189734</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.8259378918561879</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="n">
+        <v>16</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.4202642169971084</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8041396103896103</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8061271398283554</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.8049675424317888</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.8054408756910347</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.4155206224632413</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8044184535412605</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.8053720154587325</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.8044184535412606</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.8048949520780454</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D23" t="n">
+        <v>20</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.382399840481615</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8210768398268398</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8243279362546031</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.8219807707503836</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.8230098040214165</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.3784845294561235</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.8219623131903834</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.8249676022972645</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.8219623131903834</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.8234622157441398</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="n">
+        <v>16</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D24" t="n">
+        <v>20</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3791024561666124</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8245941558441559</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8271814298140594</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.825493701831274</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.8261993215840853</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.3736415548738343</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8245614035087719</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.8275909532744372</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.8245614035087719</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.8260734007507456</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D25" t="n">
+        <v>20</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.377910572656495</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8248376623376623</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8277889121529275</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.8260442401539865</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.8267838976618475</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3739304197014661</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.8248862897985705</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.8293415736492502</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.8248862897985705</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.8271079320806239</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="n">
+        <v>32</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D26" t="n">
+        <v>20</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.4064123026448466</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.8130681818181819</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.8155880362730211</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.8139993383164458</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.8146695720953332</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.4016031290927604</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8151397011046134</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.8175109918530972</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.8151397011046133</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.8163236244265393</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="n">
+        <v>32</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D27" t="n">
+        <v>20</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.3802226063389725</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.8255952380952382</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.8283159530318382</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.8266054954518128</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.8273287813626193</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.3759276824700277</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8235867446393762</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.8261714427735353</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.8235867446393762</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.8248770689659526</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="n">
+        <v>32</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D28" t="n">
+        <v>20</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.3763382180638383</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8252705627705628</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8285434354249148</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8263119608479567</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8272900133025861</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.3765209092539519</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8229369720597791</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8267848170921358</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.822936972059779</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8248564071795096</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="n">
+        <v>32</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.3738870514354319</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.8272727272727273</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.8307164906466843</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.8283765664977815</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.8293886225151766</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.3772976915392505</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8222871994801819</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.8269094385002005</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.8222871994801819</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.8245918415656481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" t="n">
+        <v>64</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>20</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.4011049008250605</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.8155032467532467</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.8186364246363643</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.8164619466480775</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.8174033391051542</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.3984658443097147</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.8161143599740091</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.8183861259956431</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.8161143599740091</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.8172486642392395</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" t="n">
+        <v>64</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D31" t="n">
+        <v>20</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.3772122687424579</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.8244588744588746</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.8270785826545953</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.8253916607008375</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.8261005836336147</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.3761300932080686</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.8206627680311891</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.8233384605101661</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.8206627680311891</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.8219984368604306</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" t="n">
+        <v>64</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D32" t="n">
+        <v>20</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.3737223930665117</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.8277597402597403</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.8307487722119116</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.828832361652213</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.8296486608396586</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.3745514394488632</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.8232618583495777</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.8268838399557354</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.8232618583495777</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.8250688741246427</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" t="n">
+        <v>64</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D33" t="n">
+        <v>20</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.3697393247378801</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8293831168831168</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.8328915691484441</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.8305290506107316</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.8315532193639577</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.3763966066405683</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.8239116309291747</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.8287130049166105</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.8239116309291747</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.8263053432016925</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="n">
+        <v>8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>20</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.6626576318876328</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.7680194805194805</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.7714617758990545</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.7694006034472127</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.7703120361879676</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.6610588137806559</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.7662934626203521</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.763157894736842</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.7647224645240884</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D35" t="n">
+        <v>20</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.3883039143040477</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.8204816017316018</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.8237975300202842</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.821063981293969</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8222880699834235</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.3817455763870747</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8200129954515919</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.8226832660613107</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.8200129954515919</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.8213459604388776</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D36" t="n">
+        <v>20</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.3821507508590589</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.8224296536796537</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.8256933540371681</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.8236516432926834</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.824538656584541</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.3756293003248833</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.8239116309291747</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.8280086210103137</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.8239116309291747</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.8259550454194861</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D37" t="n">
+        <v>20</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.3821552029395963</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.8239448051948052</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.8281784068274742</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.8250783699798822</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.8264707827945204</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.3801678635650409</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.8222871994801819</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.8271167730566964</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.8222871994801819</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.8246949155988763</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="n">
+        <v>16</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D38" t="n">
+        <v>20</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.4292733852713848</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.8007034632034632</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.803469610640169</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.8014899310760064</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.8023627473308825</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.4255390619707615</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.8021442495126706</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.8035036930979613</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.8021442495126705</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.8028233958096508</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="n">
+        <v>16</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D39" t="n">
+        <v>20</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.3823930640187604</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.8218073593073593</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.8247909462025576</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.8229105282221063</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8237108346777203</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.3763173987434174</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8219623131903834</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.824726819644543</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.8219623131903833</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.8233422458531918</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="n">
+        <v>16</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D40" t="n">
+        <v>20</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.3804209038422249</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.8238636363636364</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.8276571073098362</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.8251949718974576</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.8262801474046606</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.3787120298083841</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.8235867446393762</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.8277279662292525</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.8235867446393762</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.8256521626881518</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="n">
+        <v>16</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D41" t="n">
+        <v>20</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.377864787232615</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.8255681818181818</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.828749461692889</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.826525849627011</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.8274830551776517</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.3784532380637466</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.8219623131903834</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.8277205128701</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.8219623131903834</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.8248313635640571</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" t="n">
+        <v>32</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>20</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.4129752617600614</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.812012987012987</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.816072021705049</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.8128252993242648</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.8142794423862393</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.4107458813252262</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.8105912930474334</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.8132961851254987</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.8105912930474334</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.8119414863315022</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="n">
+        <v>32</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D43" t="n">
+        <v>20</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.3785724590739235</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.8244859307359307</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.8272258027823497</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.8256196074538927</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.8262872544370853</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.3767251865407971</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.8190383365821963</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.8225685136173482</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.8190383365821963</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.8207996293828203</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="n">
+        <v>32</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D44" t="n">
+        <v>20</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.3742318889835453</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8278409090909091</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.8313149273096379</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.82896298792885</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.8299839603303246</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.3751003718147037</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.8209876543209876</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.8254897763468849</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.8209876543209876</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.8232325600407151</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="n">
+        <v>32</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D45" t="n">
+        <v>20</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.3718017383705854</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8287337662337663</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.8323781549534706</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.8297387530798019</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.830897708529913</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.3762844430811442</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.8206627680311891</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.8269851144668439</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.8206627680311891</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.8238118112105304</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="n">
+        <v>64</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>20</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.3929377880460825</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.8172348484848485</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.8205900803009436</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.8182935019726765</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.8192925103899671</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.3905846476856435</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.815464587394412</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.8179474686439505</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.815464587394412</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.8167041409572864</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="n">
+        <v>64</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D47" t="n">
+        <v>20</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.37515525622622</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8257305194805195</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.8289863798304909</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.8268768859436386</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.8277847811330987</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.3741955075701607</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.8245614035087719</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.8282893289916191</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.8245614035087719</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.8264211621717109</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="n">
+        <v>64</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D48" t="n">
+        <v>20</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.3711878800344078</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.8306006493506494</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.8338269769163905</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.8314990136338979</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.8325203854344417</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.3746220836207388</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8222871994801819</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.8272222222222223</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.8222871994801819</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.8247473285200848</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" t="n">
+        <v>64</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D49" t="n">
+        <v>20</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.3660524051222671</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.829978354978355</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.8336103744272945</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.8313042771120347</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.8322862801305551</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.3767054180060924</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.8226120857699805</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.8294676223257909</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.8226120857699806</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.8260256300424585</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>4</v>
+      </c>
+      <c r="B50" t="n">
+        <v>8</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>20</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.6928677925270883</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.6133658008658008</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.6079101410348334</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.6168680893512355</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.5978246124698594</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.6928645497483952</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.6751137102014295</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.6957783283715384</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.6751137102014295</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.6852902716301766</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>4</v>
+      </c>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D51" t="n">
+        <v>20</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.4187236023794786</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.8132034632034632</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.8168155746940686</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.8134525067011205</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.8149756261493466</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.4124632748763732</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.8141650422352177</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.818328203307316</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.8141650422352177</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.8162413143541695</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>4</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D52" t="n">
+        <v>20</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.3841599383068893</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.8232142857142857</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.8273795068426144</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.8240251572081936</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.8255463105420128</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.3764697169928566</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.8229369720597791</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.8273655242073547</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.822936972059779</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.8251453061701487</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>4</v>
+      </c>
+      <c r="B53" t="n">
+        <v>8</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D53" t="n">
+        <v>20</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.3806914936255505</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.8231601731601732</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.8277870419131762</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.8244665588980152</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.8259705735408076</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.3772819760664107</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8226120857699805</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.8310709898808711</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.8226120857699806</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.826819903372062</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>4</v>
+      </c>
+      <c r="B54" t="n">
+        <v>16</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D54" t="n">
+        <v>20</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.6863163225041149</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.7452380952380953</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.7465907766719717</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.7474043551105922</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.7469168769499178</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.6862674294547331</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.7342430149447693</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.7346746102746635</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.7342430149447694</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.7344587492043472</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4</v>
+      </c>
+      <c r="B55" t="n">
+        <v>16</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D55" t="n">
+        <v>20</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.3835826885458935</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.8225649350649351</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.825754793684191</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.8237346097220054</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.8246075466930504</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.3761237611090942</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.8235867446393762</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.8264048121181974</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.8235867446393762</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.8249933718500132</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>4</v>
+      </c>
+      <c r="B56" t="n">
+        <v>16</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D56" t="n">
+        <v>20</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.3793721805397107</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.8265692640692641</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.8301988594582728</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.8276950917519849</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.8287982527620731</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.3762901958011829</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.8196881091617934</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.8247960769914451</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.8196881091617934</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.8222341600920492</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>4</v>
+      </c>
+      <c r="B57" t="n">
+        <v>16</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D57" t="n">
+        <v>20</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.3772732485776947</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.8270562770562772</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.8313050741754096</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.8287087230906236</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.8298470666068712</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.3775816798666355</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.8200129954515919</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.8263225306482688</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.820012995451592</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.8231556724906954</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>4</v>
+      </c>
+      <c r="B58" t="n">
+        <v>32</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D58" t="n">
+        <v>20</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.4170773658788105</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.8071699134199135</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.8106614710131689</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.8080588329742583</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.8092198262626028</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.4116206936645893</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.8109161793372319</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.8131505884664239</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.8109161793372319</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.8120318468393575</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>4</v>
+      </c>
+      <c r="B59" t="n">
+        <v>32</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D59" t="n">
+        <v>20</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.3780674011331092</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.8253246753246753</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.8290271795279522</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.8264739399501674</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.8276010522968363</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.3770925925405863</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.8209876543209876</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.8257977538105001</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.8209876543209876</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.823385679150116</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>4</v>
+      </c>
+      <c r="B60" t="n">
+        <v>32</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D60" t="n">
+        <v>20</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.3745817549172784</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.8279491341991343</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.8315392952460109</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.8293804268626643</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.8302967196941768</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.3755058773644762</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.8239116309291747</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.8299383681029666</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.8239116309291747</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.8269140186045663</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>4</v>
+      </c>
+      <c r="B61" t="n">
+        <v>32</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D61" t="n">
+        <v>20</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3671328542373192</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.8293560606060606</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.8339941072813429</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.830765372168653</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.832207869207346</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.3771312962936595</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.8206627680311891</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.8299351377979693</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.8206627680311891</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.8252729087639147</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>4</v>
+      </c>
+      <c r="B62" t="n">
+        <v>64</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D62" t="n">
+        <v>20</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.3935327041475504</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.8188582251082251</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.8226914451752774</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.8196802906212162</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.8210311161504549</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.3896885484839068</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8196881091617934</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.8232254759668745</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.8196881091617934</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.8214529844018027</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>4</v>
+      </c>
+      <c r="B63" t="n">
+        <v>64</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D63" t="n">
+        <v>20</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.374295349730613</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.8267045454545454</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.8294498212964149</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.827759458229823</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.8284651584981313</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.3785665025265736</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8180636777128005</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.8229865020079994</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.8180636777128005</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.8205177061132907</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>4</v>
+      </c>
+      <c r="B64" t="n">
+        <v>64</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D64" t="n">
+        <v>20</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.3693899449307561</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.8301136363636363</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.8342041677512542</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.8314439170921406</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.832644850237912</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.3804809007703127</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.8200129954515919</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.8262028759967929</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.8200129954515919</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.8230962985440909</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>4</v>
+      </c>
+      <c r="B65" t="n">
+        <v>64</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D65" t="n">
+        <v>20</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.3646612747434997</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.830952380952381</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.8349689626338727</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.8319936234035473</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.8333124884376467</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.3824394049372339</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.8167641325536062</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.8252089169694025</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.8167641325536062</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.8209648086974526</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +3755,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-13 08:53:40</t>
+          <t>2025-11-13 10:45:37</t>
         </is>
       </c>
     </row>

--- a/results/manual_perceptron_wyniki_classification_train_test.xlsx
+++ b/results/manual_perceptron_wyniki_classification_train_test.xlsx
@@ -533,37 +533,37 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4238495389115683</v>
+        <v>0.4185220223860162</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8027597402597403</v>
+        <v>0.8054112554112554</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8056252238278101</v>
+        <v>0.8081906229354929</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8036416480397929</v>
+        <v>0.8060800258219951</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8045002898859848</v>
+        <v>0.8070008537428276</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4208042550515327</v>
+        <v>0.4152343456835283</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8034437946718649</v>
+        <v>0.8115659519168291</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8057270787533946</v>
+        <v>0.8142411907559199</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8034437946718649</v>
+        <v>0.811565951916829</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8045838168143693</v>
+        <v>0.8129013703056808</v>
       </c>
     </row>
     <row r="3">
@@ -586,34 +586,34 @@
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3876996402026942</v>
+        <v>0.3864451847426701</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8207521645021645</v>
+        <v>0.8211850649350649</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8239374904709985</v>
+        <v>0.8246611754821543</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8214715495199716</v>
+        <v>0.8218656644325103</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8225736527410089</v>
+        <v>0.8231236560325923</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3824308599672786</v>
+        <v>0.38133567250114</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8209876543209876</v>
+        <v>0.8183885640025991</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8241917656811274</v>
+        <v>0.8214833825008953</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8209876543209876</v>
+        <v>0.8183885640025991</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8225865898764427</v>
+        <v>0.8199330529317924</v>
       </c>
     </row>
     <row r="4">
@@ -633,37 +633,37 @@
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3829670253673618</v>
+        <v>0.3824146189451622</v>
       </c>
       <c r="H4" t="n">
-        <v>0.821672077922078</v>
+        <v>0.8232142857142857</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8247803112109469</v>
+        <v>0.8258679364962608</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8226482438121919</v>
+        <v>0.8238879269070565</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8235776112923586</v>
+        <v>0.824741742507164</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3764813695656855</v>
+        <v>0.3764670343478169</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8196881091617934</v>
+        <v>0.8229369720597791</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8220936247252038</v>
+        <v>0.8254411359250069</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8196881091617934</v>
+        <v>0.822936972059779</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8208891046796707</v>
+        <v>0.8241871518691382</v>
       </c>
     </row>
     <row r="5">
@@ -683,37 +683,37 @@
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3805203628289267</v>
+        <v>0.380940238285168</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8215367965367966</v>
+        <v>0.8238906926406927</v>
       </c>
       <c r="I5" t="n">
-        <v>0.82458156399215</v>
+        <v>0.8270023765759691</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8219623805614833</v>
+        <v>0.8246657729918561</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8231335114128395</v>
+        <v>0.825697294607058</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3739394793729843</v>
+        <v>0.3776365281160287</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8219623131903834</v>
+        <v>0.8216374269005848</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8248861944312491</v>
+        <v>0.8253774832400517</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8219623131903833</v>
+        <v>0.8216374269005848</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8234216582224937</v>
+        <v>0.8235032085934538</v>
       </c>
     </row>
     <row r="6">
@@ -733,37 +733,37 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4174661265844151</v>
+        <v>0.41393573779924</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8045454545454546</v>
+        <v>0.8063582251082252</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8085052395376512</v>
+        <v>0.8096502028141963</v>
       </c>
       <c r="J6" t="n">
-        <v>0.805396865509408</v>
+        <v>0.8071808559372005</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8068117428213623</v>
+        <v>0.8082899980185476</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4133593140707976</v>
+        <v>0.4121465275008255</v>
       </c>
       <c r="M6" t="n">
-        <v>0.806367771280052</v>
+        <v>0.8066926575698505</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8093857083836264</v>
+        <v>0.8092150519325728</v>
       </c>
       <c r="O6" t="n">
-        <v>0.806367771280052</v>
+        <v>0.8066926575698505</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8078739213497887</v>
+        <v>0.8079518860517358</v>
       </c>
     </row>
     <row r="7">
@@ -783,37 +783,37 @@
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3849630913153452</v>
+        <v>0.3851132541443468</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8204274891774891</v>
+        <v>0.8195346320346319</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8235259308762969</v>
+        <v>0.8230158455346298</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8211444169343241</v>
+        <v>0.8204202840661783</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8222003960579622</v>
+        <v>0.8215706509201472</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3801833903733495</v>
+        <v>0.3803206011391589</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8235867446393762</v>
+        <v>0.8200129954515919</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8263258736971183</v>
+        <v>0.8233351889889237</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8235867446393762</v>
+        <v>0.8200129954515919</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8249540354635941</v>
+        <v>0.8216707341461734</v>
       </c>
     </row>
     <row r="8">
@@ -833,37 +833,37 @@
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3806655577638391</v>
+        <v>0.3818215765816893</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8236471861471862</v>
+        <v>0.8221590909090909</v>
       </c>
       <c r="I8" t="n">
-        <v>0.82637715449728</v>
+        <v>0.8248614933567521</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8243942578846104</v>
+        <v>0.8230921683528448</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8252498210139432</v>
+        <v>0.8238454026749736</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3752245232443722</v>
+        <v>0.374716708630188</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8242365172189734</v>
+        <v>0.8258609486679662</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8269811465358676</v>
+        <v>0.8287390029325513</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8242365172189734</v>
+        <v>0.8258609486679662</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8256065508365098</v>
+        <v>0.8272974727189726</v>
       </c>
     </row>
     <row r="9">
@@ -883,37 +883,37 @@
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3787371856465918</v>
+        <v>0.3782105588384517</v>
       </c>
       <c r="H9" t="n">
-        <v>0.825487012987013</v>
+        <v>0.8245941558441559</v>
       </c>
       <c r="I9" t="n">
-        <v>0.828211674087311</v>
+        <v>0.8273089799641276</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8265074986999518</v>
+        <v>0.8254336026549658</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8272226424114969</v>
+        <v>0.826233725498056</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3746397127867818</v>
+        <v>0.375062083886105</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8216374269005848</v>
+        <v>0.8222871994801819</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8245988771628421</v>
+        <v>0.825419913715192</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8216374269005848</v>
+        <v>0.8222871994801819</v>
       </c>
       <c r="P9" t="n">
-        <v>0.823115488323097</v>
+        <v>0.8238505785506786</v>
       </c>
     </row>
     <row r="10">
@@ -933,37 +933,37 @@
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4150088237662992</v>
+        <v>0.4110433068350222</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8072510822510823</v>
+        <v>0.8092532467532467</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8106985224162101</v>
+        <v>0.8128078420986325</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8081957497155033</v>
+        <v>0.8101575636695363</v>
       </c>
       <c r="K10" t="n">
-        <v>0.809314392584481</v>
+        <v>0.8113347350435761</v>
       </c>
       <c r="L10" t="n">
-        <v>0.411866099086685</v>
+        <v>0.4069006812766698</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8076673164392463</v>
+        <v>0.8109161793372319</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8098783775106617</v>
+        <v>0.8138183606442807</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8076673164392463</v>
+        <v>0.8109161793372319</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8087713357993873</v>
+        <v>0.8123646779807597</v>
       </c>
     </row>
     <row r="11">
@@ -983,37 +983,37 @@
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.38458345015888</v>
+        <v>0.383815584697231</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8212121212121213</v>
+        <v>0.8208333333333333</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8246327052941453</v>
+        <v>0.8237210888630008</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8218314336354737</v>
+        <v>0.8216279427932677</v>
       </c>
       <c r="K11" t="n">
-        <v>0.823085283524754</v>
+        <v>0.8225422387604957</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3803641814696704</v>
+        <v>0.3791281077752268</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8200129954515919</v>
+        <v>0.8216374269005848</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8227607642279262</v>
+        <v>0.8239132098576458</v>
       </c>
       <c r="O11" t="n">
-        <v>0.820012995451592</v>
+        <v>0.8216374269005848</v>
       </c>
       <c r="P11" t="n">
-        <v>0.821384581826048</v>
+        <v>0.8227737446845865</v>
       </c>
     </row>
     <row r="12">
@@ -1036,34 +1036,34 @@
         <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3801670494371374</v>
+        <v>0.3792642636086136</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8228354978354979</v>
+        <v>0.8235660173160174</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8259339719007597</v>
+        <v>0.8270612614545814</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8240542351036816</v>
+        <v>0.8246659407667524</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8248583153792191</v>
+        <v>0.8257202844325304</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3752706533447354</v>
+        <v>0.3749732533756486</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8245614035087719</v>
+        <v>0.8235867446393762</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8268938744806242</v>
+        <v>0.8261714427735353</v>
       </c>
       <c r="O12" t="n">
-        <v>0.8245614035087718</v>
+        <v>0.8235867446393762</v>
       </c>
       <c r="P12" t="n">
-        <v>0.8257259918350968</v>
+        <v>0.8248770689659526</v>
       </c>
     </row>
     <row r="13">
@@ -1086,34 +1086,34 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3759889648732701</v>
+        <v>0.3764988614960636</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8261363636363637</v>
+        <v>0.8255681818181818</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8290707744815322</v>
+        <v>0.8278763211161141</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8272612947254497</v>
+        <v>0.826727055132065</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8280233433687226</v>
+        <v>0.8271710967856822</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3752791654136673</v>
+        <v>0.3749050849750925</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8216374269005848</v>
+        <v>0.8209876543209876</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8251963630154528</v>
+        <v>0.8240248559446282</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8216374269005848</v>
+        <v>0.8209876543209876</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8234130493889191</v>
+        <v>0.8225034513262578</v>
       </c>
     </row>
     <row r="14">
@@ -1133,37 +1133,37 @@
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4062943788438467</v>
+        <v>0.4036357312431818</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8116883116883117</v>
+        <v>0.8137445887445888</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8149860797024226</v>
+        <v>0.8172384535279014</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8127173931374417</v>
+        <v>0.8146003734218933</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8137130485443582</v>
+        <v>0.8157804680508998</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4028819864857049</v>
+        <v>0.3987741981474379</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8141650422352177</v>
+        <v>0.8144899285250162</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8168625979780757</v>
+        <v>0.817629179331307</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8141650422352176</v>
+        <v>0.8144899285250162</v>
       </c>
       <c r="P14" t="n">
-        <v>0.8155115893636455</v>
+        <v>0.8160565348790072</v>
       </c>
     </row>
     <row r="15">
@@ -1186,34 +1186,34 @@
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3819100783332286</v>
+        <v>0.3819273512668602</v>
       </c>
       <c r="H15" t="n">
-        <v>0.821590909090909</v>
+        <v>0.8226190476190476</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8248040432031776</v>
+        <v>0.8258013733742656</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8226554861402073</v>
+        <v>0.8234133595971689</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8235870566718574</v>
+        <v>0.8244668272863673</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3786437927623668</v>
+        <v>0.3783239766885466</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8235867446393762</v>
+        <v>0.8239116309291747</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8257356041235991</v>
+        <v>0.8266144327544434</v>
       </c>
       <c r="O15" t="n">
-        <v>0.8235867446393762</v>
+        <v>0.8239116309291747</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8246597745347305</v>
+        <v>0.8252608188692704</v>
       </c>
     </row>
     <row r="16">
@@ -1236,34 +1236,34 @@
         <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3781030235358722</v>
+        <v>0.3774211179003291</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8248647186147187</v>
+        <v>0.8247564935064935</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8278932100651537</v>
+        <v>0.8275947914029056</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8258716927776676</v>
+        <v>0.8258036085311531</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8267427645338147</v>
+        <v>0.8265597746505604</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3762811732950954</v>
+        <v>0.3742260712622221</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8216374269005848</v>
+        <v>0.8232618583495777</v>
       </c>
       <c r="N16" t="n">
-        <v>0.8242065545640562</v>
+        <v>0.8256575547499743</v>
       </c>
       <c r="O16" t="n">
-        <v>0.8216374269005848</v>
+        <v>0.8232618583495777</v>
       </c>
       <c r="P16" t="n">
-        <v>0.8229199855553337</v>
+        <v>0.8244579662096485</v>
       </c>
     </row>
     <row r="17">
@@ -1283,37 +1283,37 @@
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3739938602511209</v>
+        <v>0.3745686987852104</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8274621212121213</v>
+        <v>0.826461038961039</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8302972576910135</v>
+        <v>0.829579845604355</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8286864409430249</v>
+        <v>0.8277713629671328</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8293517024545095</v>
+        <v>0.8285346168076345</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3741956128497364</v>
+        <v>0.374442524857982</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8235867446393762</v>
+        <v>0.8229369720597791</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8270778921493317</v>
+        <v>0.8265102877145052</v>
       </c>
       <c r="O17" t="n">
-        <v>0.8235867446393762</v>
+        <v>0.822936972059779</v>
       </c>
       <c r="P17" t="n">
-        <v>0.8253286265145303</v>
+        <v>0.8247197593224143</v>
       </c>
     </row>
     <row r="18">
@@ -1333,37 +1333,37 @@
         <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4319062206836599</v>
+        <v>0.4369208807633761</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7997564935064935</v>
+        <v>0.796482683982684</v>
       </c>
       <c r="I18" t="n">
-        <v>0.803312647735313</v>
+        <v>0.7978243921650772</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8010263151339414</v>
+        <v>0.797444820279277</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8020294752888962</v>
+        <v>0.797542576976677</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4294486629081166</v>
+        <v>0.4342946451677861</v>
       </c>
       <c r="M18" t="n">
-        <v>0.799545159194282</v>
+        <v>0.7959714100064977</v>
       </c>
       <c r="N18" t="n">
-        <v>0.8015343644597976</v>
+        <v>0.797176416126553</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7995451591942819</v>
+        <v>0.7959714100064976</v>
       </c>
       <c r="P18" t="n">
-        <v>0.8005385261177793</v>
+        <v>0.7965734573524587</v>
       </c>
     </row>
     <row r="19">
@@ -1386,34 +1386,34 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.384746372694073</v>
+        <v>0.386891915454072</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8205898268398268</v>
+        <v>0.8195346320346319</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8230612436790943</v>
+        <v>0.8221683297263622</v>
       </c>
       <c r="J19" t="n">
-        <v>0.821146510284865</v>
+        <v>0.8200914695583892</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8219709162353158</v>
+        <v>0.8209920072014647</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3801346428410823</v>
+        <v>0.3806470963728696</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8206627680311891</v>
+        <v>0.8196881091617934</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8234161160334651</v>
+        <v>0.8231371946535566</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8206627680311891</v>
+        <v>0.8196881091617934</v>
       </c>
       <c r="P19" t="n">
-        <v>0.8220371365087615</v>
+        <v>0.8214090312577185</v>
       </c>
     </row>
     <row r="20">
@@ -1433,37 +1433,37 @@
         <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3828318848308511</v>
+        <v>0.3824148564434905</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8223214285714285</v>
+        <v>0.8226461038961039</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8253738320962912</v>
+        <v>0.8252926929141712</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8231604113977364</v>
+        <v>0.8233184898162605</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8241333396509302</v>
+        <v>0.8241678243239144</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3764518845453999</v>
+        <v>0.376530866039876</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8206627680311891</v>
+        <v>0.8229369720597791</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8252108742111084</v>
+        <v>0.826076002250908</v>
       </c>
       <c r="O20" t="n">
-        <v>0.8206627680311891</v>
+        <v>0.822936972059779</v>
       </c>
       <c r="P20" t="n">
-        <v>0.822930537142448</v>
+        <v>0.8245034994558244</v>
       </c>
     </row>
     <row r="21">
@@ -1483,37 +1483,37 @@
         <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3796018765707649</v>
+        <v>0.3782738574691176</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8253246753246753</v>
+        <v>0.8242965367965368</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8287040063760087</v>
+        <v>0.8272037797063376</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8262529135305868</v>
+        <v>0.8253511453013392</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8273304373231219</v>
+        <v>0.8261419268175455</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3770723416499429</v>
+        <v>0.3712792183343996</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8242365172189734</v>
+        <v>0.8278102664067576</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8276463049176747</v>
+        <v>0.8320548103385231</v>
       </c>
       <c r="O21" t="n">
-        <v>0.8242365172189734</v>
+        <v>0.8278102664067577</v>
       </c>
       <c r="P21" t="n">
-        <v>0.8259378918561879</v>
+        <v>0.8299271113793742</v>
       </c>
     </row>
     <row r="22">
@@ -1533,37 +1533,37 @@
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4202642169971084</v>
+        <v>0.4240942343260142</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8041396103896103</v>
+        <v>0.8030573593073592</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8061271398283554</v>
+        <v>0.8059016113647062</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8049675424317888</v>
+        <v>0.8039254915193873</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8054408756910347</v>
+        <v>0.804776925240156</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4155206224632413</v>
+        <v>0.4215671806680091</v>
       </c>
       <c r="M22" t="n">
-        <v>0.8044184535412605</v>
+        <v>0.8024691358024691</v>
       </c>
       <c r="N22" t="n">
-        <v>0.8053720154587325</v>
+        <v>0.8040222863401744</v>
       </c>
       <c r="O22" t="n">
-        <v>0.8044184535412606</v>
+        <v>0.8024691358024691</v>
       </c>
       <c r="P22" t="n">
-        <v>0.8048949520780454</v>
+        <v>0.8032449602809473</v>
       </c>
     </row>
     <row r="23">
@@ -1583,37 +1583,37 @@
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3823998404816151</v>
+        <v>0.383049966971462</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8210768398268398</v>
+        <v>0.8227272727272728</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8243279362546031</v>
+        <v>0.8251816090129149</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8219807707503836</v>
+        <v>0.8232083182839596</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8230098040214165</v>
+        <v>0.8240673314607772</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3784845294561235</v>
+        <v>0.3784201823522367</v>
       </c>
       <c r="M23" t="n">
-        <v>0.8219623131903834</v>
+        <v>0.8206627680311891</v>
       </c>
       <c r="N23" t="n">
-        <v>0.8249676022972645</v>
+        <v>0.8228266483043554</v>
       </c>
       <c r="O23" t="n">
-        <v>0.8219623131903834</v>
+        <v>0.8206627680311891</v>
       </c>
       <c r="P23" t="n">
-        <v>0.8234622157441398</v>
+        <v>0.8217432836445018</v>
       </c>
     </row>
     <row r="24">
@@ -1633,37 +1633,37 @@
         <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3791024561666124</v>
+        <v>0.379528093722423</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8245941558441559</v>
+        <v>0.8237012987012987</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8271814298140594</v>
+        <v>0.8268798772477298</v>
       </c>
       <c r="J24" t="n">
-        <v>0.825493701831274</v>
+        <v>0.8246179469981187</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8261993215840853</v>
+        <v>0.8256028562353713</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3736415548738343</v>
+        <v>0.3741483841922206</v>
       </c>
       <c r="M24" t="n">
-        <v>0.8245614035087719</v>
+        <v>0.8242365172189734</v>
       </c>
       <c r="N24" t="n">
-        <v>0.8275909532744372</v>
+        <v>0.8280998465371745</v>
       </c>
       <c r="O24" t="n">
-        <v>0.8245614035087719</v>
+        <v>0.8242365172189734</v>
       </c>
       <c r="P24" t="n">
-        <v>0.8260734007507456</v>
+        <v>0.8261636654509869</v>
       </c>
     </row>
     <row r="25">
@@ -1686,34 +1686,34 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.377910572656495</v>
+        <v>0.3753093669645023</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8248376623376623</v>
+        <v>0.8276244588744589</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8277889121529275</v>
+        <v>0.8308991136633773</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8260442401539865</v>
+        <v>0.8288401042622924</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8267838976618475</v>
+        <v>0.8297213074565215</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3739304197014661</v>
+        <v>0.3752217319859835</v>
       </c>
       <c r="M25" t="n">
-        <v>0.8248862897985705</v>
+        <v>0.8229369720597791</v>
       </c>
       <c r="N25" t="n">
-        <v>0.8293415736492502</v>
+        <v>0.8275685301100799</v>
       </c>
       <c r="O25" t="n">
-        <v>0.8248862897985705</v>
+        <v>0.822936972059779</v>
       </c>
       <c r="P25" t="n">
-        <v>0.8271079320806239</v>
+        <v>0.8252462526727929</v>
       </c>
     </row>
     <row r="26">
@@ -1733,37 +1733,37 @@
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4064123026448466</v>
+        <v>0.4087126245637612</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8130681818181819</v>
+        <v>0.8135281385281384</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8155880362730211</v>
+        <v>0.8159872845986409</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8139993383164458</v>
+        <v>0.8141990032285967</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8146695720953332</v>
+        <v>0.8149587541648602</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4016031290927604</v>
+        <v>0.4034775216859118</v>
       </c>
       <c r="M26" t="n">
-        <v>0.8151397011046134</v>
+        <v>0.8138401559454191</v>
       </c>
       <c r="N26" t="n">
-        <v>0.8175109918530972</v>
+        <v>0.8157278411118096</v>
       </c>
       <c r="O26" t="n">
-        <v>0.8151397011046133</v>
+        <v>0.8138401559454191</v>
       </c>
       <c r="P26" t="n">
-        <v>0.8163236244265393</v>
+        <v>0.8147829051850737</v>
       </c>
     </row>
     <row r="27">
@@ -1783,37 +1783,37 @@
         <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3802226063389725</v>
+        <v>0.3804743366297297</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8255952380952382</v>
+        <v>0.8226461038961039</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8283159530318382</v>
+        <v>0.8258917943280926</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8266054954518128</v>
+        <v>0.8237370425029953</v>
       </c>
       <c r="K27" t="n">
-        <v>0.8273287813626193</v>
+        <v>0.82467206474602</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3759276824700277</v>
+        <v>0.3780694206047733</v>
       </c>
       <c r="M27" t="n">
-        <v>0.8235867446393762</v>
+        <v>0.8216374269005848</v>
       </c>
       <c r="N27" t="n">
-        <v>0.8261714427735353</v>
+        <v>0.8242065545640562</v>
       </c>
       <c r="O27" t="n">
-        <v>0.8235867446393762</v>
+        <v>0.8216374269005848</v>
       </c>
       <c r="P27" t="n">
-        <v>0.8248770689659526</v>
+        <v>0.8229199855553337</v>
       </c>
     </row>
     <row r="28">
@@ -1833,25 +1833,25 @@
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3763382180638383</v>
+        <v>0.3761811728194061</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8252705627705628</v>
+        <v>0.8274350649350649</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8285434354249148</v>
+        <v>0.8307627105308633</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8263119608479567</v>
+        <v>0.8285230549249876</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8272900133025861</v>
+        <v>0.8294922176801572</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3765209092539518</v>
+        <v>0.3757406811859043</v>
       </c>
       <c r="M28" t="n">
         <v>0.8229369720597791</v>
@@ -1883,37 +1883,37 @@
         <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3738870514354319</v>
+        <v>0.3717874071398136</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8272727272727273</v>
+        <v>0.8280303030303031</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8307164906466843</v>
+        <v>0.8312324794337485</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8283765664977815</v>
+        <v>0.8291445479261095</v>
       </c>
       <c r="K29" t="n">
-        <v>0.8293886225151766</v>
+        <v>0.8300465800271739</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3772976915392505</v>
+        <v>0.3750484423724005</v>
       </c>
       <c r="M29" t="n">
-        <v>0.8222871994801819</v>
+        <v>0.8213125406107862</v>
       </c>
       <c r="N29" t="n">
-        <v>0.8269094385002005</v>
+        <v>0.8263925611700177</v>
       </c>
       <c r="O29" t="n">
-        <v>0.8222871994801819</v>
+        <v>0.8213125406107862</v>
       </c>
       <c r="P29" t="n">
-        <v>0.8245918415656481</v>
+        <v>0.8238447198140599</v>
       </c>
     </row>
     <row r="30">
@@ -1936,34 +1936,34 @@
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4011049008250605</v>
+        <v>0.3977146180534072</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8155032467532467</v>
+        <v>0.817775974025974</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8186364246363643</v>
+        <v>0.8216426318765514</v>
       </c>
       <c r="J30" t="n">
-        <v>0.8164619466480775</v>
+        <v>0.8187972608238691</v>
       </c>
       <c r="K30" t="n">
-        <v>0.8174033391051542</v>
+        <v>0.8200797627237674</v>
       </c>
       <c r="L30" t="n">
-        <v>0.3984658443097147</v>
+        <v>0.3944846349652583</v>
       </c>
       <c r="M30" t="n">
-        <v>0.8161143599740091</v>
+        <v>0.8206627680311891</v>
       </c>
       <c r="N30" t="n">
-        <v>0.8183861259956431</v>
+        <v>0.8240785267864191</v>
       </c>
       <c r="O30" t="n">
-        <v>0.8161143599740091</v>
+        <v>0.8206627680311891</v>
       </c>
       <c r="P30" t="n">
-        <v>0.8172486642392395</v>
+        <v>0.8223671005264126</v>
       </c>
     </row>
     <row r="31">
@@ -1983,37 +1983,37 @@
         <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3772122687424579</v>
+        <v>0.3774196597984378</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8244588744588746</v>
+        <v>0.8244318181818182</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8270785826545953</v>
+        <v>0.8276820403789957</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8253916607008375</v>
+        <v>0.8253269960843439</v>
       </c>
       <c r="K31" t="n">
-        <v>0.8261005836336147</v>
+        <v>0.8263562347429704</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3761300932080686</v>
+        <v>0.3770427059982944</v>
       </c>
       <c r="M31" t="n">
-        <v>0.8206627680311891</v>
+        <v>0.8226120857699805</v>
       </c>
       <c r="N31" t="n">
-        <v>0.8233384605101661</v>
+        <v>0.8257900407475515</v>
       </c>
       <c r="O31" t="n">
-        <v>0.8206627680311891</v>
+        <v>0.8226120857699805</v>
       </c>
       <c r="P31" t="n">
-        <v>0.8219984368604306</v>
+        <v>0.8241979998685662</v>
       </c>
     </row>
     <row r="32">
@@ -2033,37 +2033,37 @@
         <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3737223930665118</v>
+        <v>0.3727831014399091</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8277597402597403</v>
+        <v>0.8291666666666667</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8307487722119116</v>
+        <v>0.832274182835524</v>
       </c>
       <c r="J32" t="n">
-        <v>0.828832361652213</v>
+        <v>0.8300981705820268</v>
       </c>
       <c r="K32" t="n">
-        <v>0.8296486608396586</v>
+        <v>0.8310462011959399</v>
       </c>
       <c r="L32" t="n">
-        <v>0.3745514394488632</v>
+        <v>0.3738163637726448</v>
       </c>
       <c r="M32" t="n">
-        <v>0.8232618583495777</v>
+        <v>0.8219623131903834</v>
       </c>
       <c r="N32" t="n">
-        <v>0.8268838399557354</v>
+        <v>0.8251338674529944</v>
       </c>
       <c r="O32" t="n">
-        <v>0.8232618583495777</v>
+        <v>0.8219623131903834</v>
       </c>
       <c r="P32" t="n">
-        <v>0.8250688741246427</v>
+        <v>0.8235450368398828</v>
       </c>
     </row>
     <row r="33">
@@ -2086,34 +2086,34 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3697393247378802</v>
+        <v>0.3687494016643072</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8293831168831168</v>
+        <v>0.8298430735930735</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8328915691484441</v>
+        <v>0.8333771175707698</v>
       </c>
       <c r="J33" t="n">
-        <v>0.8305290506107316</v>
+        <v>0.8310215001281889</v>
       </c>
       <c r="K33" t="n">
-        <v>0.8315532193639577</v>
+        <v>0.8320479097278691</v>
       </c>
       <c r="L33" t="n">
-        <v>0.3763966066405683</v>
+        <v>0.3739180973775414</v>
       </c>
       <c r="M33" t="n">
-        <v>0.8239116309291747</v>
+        <v>0.8226120857699805</v>
       </c>
       <c r="N33" t="n">
-        <v>0.8287130049166105</v>
+        <v>0.8281540084886501</v>
       </c>
       <c r="O33" t="n">
-        <v>0.8239116309291747</v>
+        <v>0.8226120857699805</v>
       </c>
       <c r="P33" t="n">
-        <v>0.8263053432016925</v>
+        <v>0.8253737445068763</v>
       </c>
     </row>
     <row r="34">
@@ -2133,37 +2133,37 @@
         <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6626576318876328</v>
+        <v>0.5203433919683611</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7680194805194805</v>
+        <v>0.7855790043290044</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7714617758990545</v>
+        <v>0.7973117337305075</v>
       </c>
       <c r="J34" t="n">
-        <v>0.7694006034472127</v>
+        <v>0.7869006332954968</v>
       </c>
       <c r="K34" t="n">
-        <v>0.7703120361879676</v>
+        <v>0.7918400733105786</v>
       </c>
       <c r="L34" t="n">
-        <v>0.6610588137806559</v>
+        <v>0.5176313521700889</v>
       </c>
       <c r="M34" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.7914230019493177</v>
       </c>
       <c r="N34" t="n">
-        <v>0.7662934626203521</v>
+        <v>0.80358207064654</v>
       </c>
       <c r="O34" t="n">
-        <v>0.763157894736842</v>
+        <v>0.7914230019493177</v>
       </c>
       <c r="P34" t="n">
-        <v>0.7647224645240884</v>
+        <v>0.7974561906924746</v>
       </c>
     </row>
     <row r="35">
@@ -2186,34 +2186,34 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3883039143040477</v>
+        <v>0.3857179622132473</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8204816017316018</v>
+        <v>0.8219155844155844</v>
       </c>
       <c r="I35" t="n">
-        <v>0.8237975300202842</v>
+        <v>0.8246441706096953</v>
       </c>
       <c r="J35" t="n">
-        <v>0.821063981293969</v>
+        <v>0.8227380284944936</v>
       </c>
       <c r="K35" t="n">
-        <v>0.8222880699834235</v>
+        <v>0.8235623689808087</v>
       </c>
       <c r="L35" t="n">
-        <v>0.3817455763870747</v>
+        <v>0.3789925530146261</v>
       </c>
       <c r="M35" t="n">
         <v>0.8200129954515919</v>
       </c>
       <c r="N35" t="n">
-        <v>0.8226832660613107</v>
+        <v>0.8230000890643849</v>
       </c>
       <c r="O35" t="n">
         <v>0.8200129954515919</v>
       </c>
       <c r="P35" t="n">
-        <v>0.8213459604388776</v>
+        <v>0.8215038269027866</v>
       </c>
     </row>
     <row r="36">
@@ -2236,34 +2236,34 @@
         <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3821507508590589</v>
+        <v>0.3820623311959514</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8224296536796537</v>
+        <v>0.8216179653679654</v>
       </c>
       <c r="I36" t="n">
-        <v>0.8256933540371681</v>
+        <v>0.8249120214209872</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8236516432926834</v>
+        <v>0.8226881486012503</v>
       </c>
       <c r="K36" t="n">
-        <v>0.824538656584541</v>
+        <v>0.823656549562634</v>
       </c>
       <c r="L36" t="n">
-        <v>0.3756293003248833</v>
+        <v>0.3751352169026198</v>
       </c>
       <c r="M36" t="n">
-        <v>0.8239116309291747</v>
+        <v>0.8226120857699805</v>
       </c>
       <c r="N36" t="n">
-        <v>0.8280086210103137</v>
+        <v>0.8271878400117838</v>
       </c>
       <c r="O36" t="n">
-        <v>0.8239116309291747</v>
+        <v>0.8226120857699806</v>
       </c>
       <c r="P36" t="n">
-        <v>0.8259550454194861</v>
+        <v>0.8248936174163327</v>
       </c>
     </row>
     <row r="37">
@@ -2283,37 +2283,37 @@
         <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3821552029395963</v>
+        <v>0.3758978132551278</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8239448051948052</v>
+        <v>0.8255681818181818</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8281784068274742</v>
+        <v>0.829813669085212</v>
       </c>
       <c r="J37" t="n">
-        <v>0.8250783699798822</v>
+        <v>0.8266729179645641</v>
       </c>
       <c r="K37" t="n">
-        <v>0.8264707827945204</v>
+        <v>0.8280969443005812</v>
       </c>
       <c r="L37" t="n">
-        <v>0.3801678635650409</v>
+        <v>0.3707780275870796</v>
       </c>
       <c r="M37" t="n">
-        <v>0.8222871994801819</v>
+        <v>0.825211176088369</v>
       </c>
       <c r="N37" t="n">
-        <v>0.8271167730566964</v>
+        <v>0.8312620927493175</v>
       </c>
       <c r="O37" t="n">
-        <v>0.8222871994801819</v>
+        <v>0.825211176088369</v>
       </c>
       <c r="P37" t="n">
-        <v>0.8246949155988763</v>
+        <v>0.8282255827486695</v>
       </c>
     </row>
     <row r="38">
@@ -2333,37 +2333,37 @@
         <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4292733852713846</v>
+        <v>0.4844597579969931</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8007034632034632</v>
+        <v>0.7958603896103896</v>
       </c>
       <c r="I38" t="n">
-        <v>0.803469610640169</v>
+        <v>0.8005212382266993</v>
       </c>
       <c r="J38" t="n">
-        <v>0.8014899310760064</v>
+        <v>0.7967816194817949</v>
       </c>
       <c r="K38" t="n">
-        <v>0.8023627473308825</v>
+        <v>0.7984972469666531</v>
       </c>
       <c r="L38" t="n">
-        <v>0.4255390619707615</v>
+        <v>0.4785421831076417</v>
       </c>
       <c r="M38" t="n">
-        <v>0.8021442495126706</v>
+        <v>0.7940220922677063</v>
       </c>
       <c r="N38" t="n">
-        <v>0.8035036930979613</v>
+        <v>0.7979183288450062</v>
       </c>
       <c r="O38" t="n">
-        <v>0.8021442495126705</v>
+        <v>0.7940220922677063</v>
       </c>
       <c r="P38" t="n">
-        <v>0.8028233958096508</v>
+        <v>0.7959654425828615</v>
       </c>
     </row>
     <row r="39">
@@ -2383,37 +2383,37 @@
         <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3823930640187604</v>
+        <v>0.380862692138566</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8218073593073593</v>
+        <v>0.8227002164502164</v>
       </c>
       <c r="I39" t="n">
-        <v>0.8247909462025576</v>
+        <v>0.8260252828270681</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8229105282221063</v>
+        <v>0.8237731261117334</v>
       </c>
       <c r="K39" t="n">
-        <v>0.8237108346777203</v>
+        <v>0.8247539549202656</v>
       </c>
       <c r="L39" t="n">
-        <v>0.3763173987434174</v>
+        <v>0.3778934553699417</v>
       </c>
       <c r="M39" t="n">
-        <v>0.8219623131903834</v>
+        <v>0.817738791423002</v>
       </c>
       <c r="N39" t="n">
-        <v>0.824726819644543</v>
+        <v>0.8212545889182958</v>
       </c>
       <c r="O39" t="n">
-        <v>0.8219623131903833</v>
+        <v>0.8177387914230019</v>
       </c>
       <c r="P39" t="n">
-        <v>0.8233422458531918</v>
+        <v>0.8194929193097729</v>
       </c>
     </row>
     <row r="40">
@@ -2433,37 +2433,37 @@
         <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3804209038422249</v>
+        <v>0.378218694913432</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8238636363636364</v>
+        <v>0.825</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8276571073098362</v>
+        <v>0.8282535247226764</v>
       </c>
       <c r="J40" t="n">
-        <v>0.8251949718974576</v>
+        <v>0.8262360866606479</v>
       </c>
       <c r="K40" t="n">
-        <v>0.8262801474046606</v>
+        <v>0.8270978186666698</v>
       </c>
       <c r="L40" t="n">
-        <v>0.3787120298083841</v>
+        <v>0.3756079056853487</v>
       </c>
       <c r="M40" t="n">
-        <v>0.8235867446393762</v>
+        <v>0.8219623131903834</v>
       </c>
       <c r="N40" t="n">
-        <v>0.8277279662292525</v>
+        <v>0.8265288514115587</v>
       </c>
       <c r="O40" t="n">
-        <v>0.8235867446393762</v>
+        <v>0.8219623131903833</v>
       </c>
       <c r="P40" t="n">
-        <v>0.8256521626881518</v>
+        <v>0.8242392573440125</v>
       </c>
     </row>
     <row r="41">
@@ -2483,37 +2483,37 @@
         <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>0.377864787232615</v>
+        <v>0.3762072167542176</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8255681818181818</v>
+        <v>0.8260822510822511</v>
       </c>
       <c r="I41" t="n">
-        <v>0.828749461692889</v>
+        <v>0.8293225736304444</v>
       </c>
       <c r="J41" t="n">
-        <v>0.826525849627011</v>
+        <v>0.827413055732102</v>
       </c>
       <c r="K41" t="n">
-        <v>0.8274830551776517</v>
+        <v>0.828208692862392</v>
       </c>
       <c r="L41" t="n">
-        <v>0.3784532380637466</v>
+        <v>0.3784047528079348</v>
       </c>
       <c r="M41" t="n">
-        <v>0.8219623131903834</v>
+        <v>0.8248862897985705</v>
       </c>
       <c r="N41" t="n">
-        <v>0.8277205128701</v>
+        <v>0.8290441428004542</v>
       </c>
       <c r="O41" t="n">
-        <v>0.8219623131903834</v>
+        <v>0.8248862897985705</v>
       </c>
       <c r="P41" t="n">
-        <v>0.8248313635640571</v>
+        <v>0.8269599900393129</v>
       </c>
     </row>
     <row r="42">
@@ -2536,34 +2536,34 @@
         <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4129752617600614</v>
+        <v>0.4123523668884534</v>
       </c>
       <c r="H42" t="n">
-        <v>0.812012987012987</v>
+        <v>0.8102813852813853</v>
       </c>
       <c r="I42" t="n">
-        <v>0.816072021705049</v>
+        <v>0.8131599650984258</v>
       </c>
       <c r="J42" t="n">
-        <v>0.8128252993242648</v>
+        <v>0.8108751535609829</v>
       </c>
       <c r="K42" t="n">
-        <v>0.8142794423862393</v>
+        <v>0.8118873267865071</v>
       </c>
       <c r="L42" t="n">
-        <v>0.4107458813252262</v>
+        <v>0.4097517585447536</v>
       </c>
       <c r="M42" t="n">
-        <v>0.8105912930474334</v>
+        <v>0.8096166341780376</v>
       </c>
       <c r="N42" t="n">
-        <v>0.8132961851254987</v>
+        <v>0.8120534887926725</v>
       </c>
       <c r="O42" t="n">
-        <v>0.8105912930474334</v>
+        <v>0.8096166341780376</v>
       </c>
       <c r="P42" t="n">
-        <v>0.8119414863315022</v>
+        <v>0.8108332305764888</v>
       </c>
     </row>
     <row r="43">
@@ -2586,34 +2586,34 @@
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3785724590739235</v>
+        <v>0.3779251374007051</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8244859307359307</v>
+        <v>0.8252164502164502</v>
       </c>
       <c r="I43" t="n">
-        <v>0.8272258027823497</v>
+        <v>0.8278803928035078</v>
       </c>
       <c r="J43" t="n">
-        <v>0.8256196074538927</v>
+        <v>0.8261776254026667</v>
       </c>
       <c r="K43" t="n">
-        <v>0.8262872544370853</v>
+        <v>0.8268945392732483</v>
       </c>
       <c r="L43" t="n">
-        <v>0.3767251865407971</v>
+        <v>0.3756187023384135</v>
       </c>
       <c r="M43" t="n">
-        <v>0.8190383365821963</v>
+        <v>0.8209876543209876</v>
       </c>
       <c r="N43" t="n">
-        <v>0.8225685136173482</v>
+        <v>0.8241917656811274</v>
       </c>
       <c r="O43" t="n">
-        <v>0.8190383365821963</v>
+        <v>0.8209876543209876</v>
       </c>
       <c r="P43" t="n">
-        <v>0.8207996293828203</v>
+        <v>0.8225865898764427</v>
       </c>
     </row>
     <row r="44">
@@ -2633,37 +2633,37 @@
         <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3742318889835453</v>
+        <v>0.3737599880055424</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8278409090909091</v>
+        <v>0.8276244588744589</v>
       </c>
       <c r="I44" t="n">
-        <v>0.8313149273096379</v>
+        <v>0.8307698371390124</v>
       </c>
       <c r="J44" t="n">
-        <v>0.82896298792885</v>
+        <v>0.8286574138067834</v>
       </c>
       <c r="K44" t="n">
-        <v>0.8299839603303246</v>
+        <v>0.829558374808036</v>
       </c>
       <c r="L44" t="n">
-        <v>0.3751003718147037</v>
+        <v>0.3756534457046054</v>
       </c>
       <c r="M44" t="n">
-        <v>0.8209876543209876</v>
+        <v>0.8196881091617934</v>
       </c>
       <c r="N44" t="n">
-        <v>0.8254897763468849</v>
+        <v>0.8246891133942813</v>
       </c>
       <c r="O44" t="n">
-        <v>0.8209876543209876</v>
+        <v>0.8196881091617934</v>
       </c>
       <c r="P44" t="n">
-        <v>0.8232325600407151</v>
+        <v>0.8221810065621028</v>
       </c>
     </row>
     <row r="45">
@@ -2686,34 +2686,34 @@
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3718017383705854</v>
+        <v>0.3728288787247624</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8287337662337663</v>
+        <v>0.8256493506493506</v>
       </c>
       <c r="I45" t="n">
-        <v>0.8323781549534706</v>
+        <v>0.8290561580112081</v>
       </c>
       <c r="J45" t="n">
-        <v>0.8297387530798019</v>
+        <v>0.8267933545165658</v>
       </c>
       <c r="K45" t="n">
-        <v>0.830897708529913</v>
+        <v>0.8277720291692233</v>
       </c>
       <c r="L45" t="n">
-        <v>0.3762844430811442</v>
+        <v>0.3780993236459715</v>
       </c>
       <c r="M45" t="n">
-        <v>0.8206627680311891</v>
+        <v>0.8213125406107862</v>
       </c>
       <c r="N45" t="n">
-        <v>0.8269851144668439</v>
+        <v>0.8271744153803494</v>
       </c>
       <c r="O45" t="n">
-        <v>0.8206627680311891</v>
+        <v>0.8213125406107862</v>
       </c>
       <c r="P45" t="n">
-        <v>0.8238118112105304</v>
+        <v>0.8242330558397571</v>
       </c>
     </row>
     <row r="46">
@@ -2733,37 +2733,37 @@
         <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3929377880460825</v>
+        <v>0.3935980038182005</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8172348484848485</v>
+        <v>0.8185064935064935</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8205900803009436</v>
+        <v>0.8219226584414188</v>
       </c>
       <c r="J46" t="n">
-        <v>0.8182935019726765</v>
+        <v>0.8191502266962454</v>
       </c>
       <c r="K46" t="n">
-        <v>0.8192925103899671</v>
+        <v>0.8203968231466813</v>
       </c>
       <c r="L46" t="n">
-        <v>0.3905846476856435</v>
+        <v>0.3871791278471585</v>
       </c>
       <c r="M46" t="n">
-        <v>0.815464587394412</v>
+        <v>0.8226120857699805</v>
       </c>
       <c r="N46" t="n">
-        <v>0.8179474686439505</v>
+        <v>0.8256234400415576</v>
       </c>
       <c r="O46" t="n">
-        <v>0.815464587394412</v>
+        <v>0.8226120857699805</v>
       </c>
       <c r="P46" t="n">
-        <v>0.8167041409572864</v>
+        <v>0.8241150120080949</v>
       </c>
     </row>
     <row r="47">
@@ -2783,37 +2783,37 @@
         <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>0.37515525622622</v>
+        <v>0.3755198257212806</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8257305194805195</v>
+        <v>0.8266504329004329</v>
       </c>
       <c r="I47" t="n">
-        <v>0.8289863798304909</v>
+        <v>0.8291242273507536</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8268768859436386</v>
+        <v>0.8277416720162385</v>
       </c>
       <c r="K47" t="n">
-        <v>0.8277847811330987</v>
+        <v>0.8283022075425807</v>
       </c>
       <c r="L47" t="n">
-        <v>0.3741955075701607</v>
+        <v>0.3746406429683257</v>
       </c>
       <c r="M47" t="n">
-        <v>0.8245614035087719</v>
+        <v>0.8242365172189734</v>
       </c>
       <c r="N47" t="n">
-        <v>0.8282893289916191</v>
+        <v>0.8275591001221585</v>
       </c>
       <c r="O47" t="n">
-        <v>0.8245614035087719</v>
+        <v>0.8242365172189734</v>
       </c>
       <c r="P47" t="n">
-        <v>0.8264211621717109</v>
+        <v>0.8258944669868151</v>
       </c>
     </row>
     <row r="48">
@@ -2833,37 +2833,37 @@
         <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3711878800344078</v>
+        <v>0.3708203933871368</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8306006493506494</v>
+        <v>0.8307088744588745</v>
       </c>
       <c r="I48" t="n">
-        <v>0.8338269769163905</v>
+        <v>0.8339421986119319</v>
       </c>
       <c r="J48" t="n">
-        <v>0.8314990136338979</v>
+        <v>0.8317963666621027</v>
       </c>
       <c r="K48" t="n">
-        <v>0.8325203854344417</v>
+        <v>0.8327115062809546</v>
       </c>
       <c r="L48" t="n">
-        <v>0.3746220836207388</v>
+        <v>0.3776649888928469</v>
       </c>
       <c r="M48" t="n">
-        <v>0.8222871994801819</v>
+        <v>0.8216374269005848</v>
       </c>
       <c r="N48" t="n">
-        <v>0.8272222222222223</v>
+        <v>0.8265625000000001</v>
       </c>
       <c r="O48" t="n">
-        <v>0.8222871994801819</v>
+        <v>0.8216374269005848</v>
       </c>
       <c r="P48" t="n">
-        <v>0.8247473285200848</v>
+        <v>0.8240926050149961</v>
       </c>
     </row>
     <row r="49">
@@ -2883,37 +2883,37 @@
         <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3660524051222671</v>
+        <v>0.3639588337504742</v>
       </c>
       <c r="H49" t="n">
-        <v>0.829978354978355</v>
+        <v>0.8318722943722944</v>
       </c>
       <c r="I49" t="n">
-        <v>0.8336103744272945</v>
+        <v>0.8357207411551283</v>
       </c>
       <c r="J49" t="n">
-        <v>0.8313042771120347</v>
+        <v>0.8329107061122746</v>
       </c>
       <c r="K49" t="n">
-        <v>0.8322862801305551</v>
+        <v>0.8341481783971557</v>
       </c>
       <c r="L49" t="n">
-        <v>0.3767054180060924</v>
+        <v>0.377695673957381</v>
       </c>
       <c r="M49" t="n">
-        <v>0.8226120857699805</v>
+        <v>0.8190383365821963</v>
       </c>
       <c r="N49" t="n">
-        <v>0.8294676223257909</v>
+        <v>0.8267880495703077</v>
       </c>
       <c r="O49" t="n">
-        <v>0.8226120857699806</v>
+        <v>0.8190383365821963</v>
       </c>
       <c r="P49" t="n">
-        <v>0.8260256300424585</v>
+        <v>0.8228949475152671</v>
       </c>
     </row>
     <row r="50">
@@ -2933,37 +2933,37 @@
         <v>2</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>0.6928677925270883</v>
+        <v>0.6922168911162514</v>
       </c>
       <c r="H50" t="n">
-        <v>0.6133658008658008</v>
+        <v>0.6980248917748917</v>
       </c>
       <c r="I50" t="n">
-        <v>0.6079101410348334</v>
+        <v>0.7277130243273322</v>
       </c>
       <c r="J50" t="n">
-        <v>0.6168680893512355</v>
+        <v>0.6994562552674943</v>
       </c>
       <c r="K50" t="n">
-        <v>0.5978246124698594</v>
+        <v>0.7126166635502268</v>
       </c>
       <c r="L50" t="n">
-        <v>0.6928645497483952</v>
+        <v>0.6922233140329128</v>
       </c>
       <c r="M50" t="n">
-        <v>0.6751137102014295</v>
+        <v>0.714100064977258</v>
       </c>
       <c r="N50" t="n">
-        <v>0.6957783283715384</v>
+        <v>0.7231542922724266</v>
       </c>
       <c r="O50" t="n">
-        <v>0.6751137102014295</v>
+        <v>0.714100064977258</v>
       </c>
       <c r="P50" t="n">
-        <v>0.6852902716301766</v>
+        <v>0.7185986593055238</v>
       </c>
     </row>
     <row r="51">
@@ -2983,37 +2983,37 @@
         <v>2</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4187236023794786</v>
+        <v>0.4886415571937331</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8132034632034632</v>
+        <v>0.7844696969696969</v>
       </c>
       <c r="I51" t="n">
-        <v>0.8168155746940686</v>
+        <v>0.7859162076249259</v>
       </c>
       <c r="J51" t="n">
-        <v>0.8134525067011205</v>
+        <v>0.7861023539547527</v>
       </c>
       <c r="K51" t="n">
-        <v>0.8149756261493466</v>
+        <v>0.7859103313271728</v>
       </c>
       <c r="L51" t="n">
-        <v>0.4124632748763732</v>
+        <v>0.4730840167672775</v>
       </c>
       <c r="M51" t="n">
-        <v>0.8141650422352177</v>
+        <v>0.7917478882391163</v>
       </c>
       <c r="N51" t="n">
-        <v>0.818328203307316</v>
+        <v>0.7930605552709347</v>
       </c>
       <c r="O51" t="n">
-        <v>0.8141650422352177</v>
+        <v>0.7917478882391162</v>
       </c>
       <c r="P51" t="n">
-        <v>0.8162413143541695</v>
+        <v>0.7924036781263164</v>
       </c>
     </row>
     <row r="52">
@@ -3036,34 +3036,34 @@
         <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3841599383068893</v>
+        <v>0.3842450227432792</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8232142857142857</v>
+        <v>0.8241883116883116</v>
       </c>
       <c r="I52" t="n">
-        <v>0.8273795068426144</v>
+        <v>0.8280482880182886</v>
       </c>
       <c r="J52" t="n">
-        <v>0.8240251572081936</v>
+        <v>0.8251480889131478</v>
       </c>
       <c r="K52" t="n">
-        <v>0.8255463105420128</v>
+        <v>0.8264400246077074</v>
       </c>
       <c r="L52" t="n">
-        <v>0.3764697169928566</v>
+        <v>0.3801429766396427</v>
       </c>
       <c r="M52" t="n">
-        <v>0.8229369720597791</v>
+        <v>0.8200129954515919</v>
       </c>
       <c r="N52" t="n">
-        <v>0.8273655242073547</v>
+        <v>0.8252889891228077</v>
       </c>
       <c r="O52" t="n">
-        <v>0.822936972059779</v>
+        <v>0.8200129954515919</v>
       </c>
       <c r="P52" t="n">
-        <v>0.8251453061701487</v>
+        <v>0.8226425330166587</v>
       </c>
     </row>
     <row r="53">
@@ -3083,37 +3083,37 @@
         <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3806914936255505</v>
+        <v>0.3788512967620815</v>
       </c>
       <c r="H53" t="n">
-        <v>0.8231601731601732</v>
+        <v>0.8236201298701299</v>
       </c>
       <c r="I53" t="n">
-        <v>0.8277870419131762</v>
+        <v>0.8278453657846211</v>
       </c>
       <c r="J53" t="n">
-        <v>0.8244665588980152</v>
+        <v>0.8247946544891792</v>
       </c>
       <c r="K53" t="n">
-        <v>0.8259705735408076</v>
+        <v>0.8261720362518723</v>
       </c>
       <c r="L53" t="n">
-        <v>0.3772819760664107</v>
+        <v>0.3747142534170257</v>
       </c>
       <c r="M53" t="n">
-        <v>0.8226120857699805</v>
+        <v>0.8229369720597791</v>
       </c>
       <c r="N53" t="n">
-        <v>0.8310709898808711</v>
+        <v>0.8287703911805566</v>
       </c>
       <c r="O53" t="n">
-        <v>0.8226120857699806</v>
+        <v>0.822936972059779</v>
       </c>
       <c r="P53" t="n">
-        <v>0.826819903372062</v>
+        <v>0.8258433805282808</v>
       </c>
     </row>
     <row r="54">
@@ -3133,37 +3133,37 @@
         <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G54" t="n">
-        <v>0.6863163225041149</v>
+        <v>0.6764190433381634</v>
       </c>
       <c r="H54" t="n">
-        <v>0.7452380952380953</v>
+        <v>0.7629058441558442</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7465907766719717</v>
+        <v>0.7692041216174409</v>
       </c>
       <c r="J54" t="n">
-        <v>0.7474043551105922</v>
+        <v>0.763916765095576</v>
       </c>
       <c r="K54" t="n">
-        <v>0.7469168769499178</v>
+        <v>0.7663900783636236</v>
       </c>
       <c r="L54" t="n">
-        <v>0.6862674294547331</v>
+        <v>0.675682020272857</v>
       </c>
       <c r="M54" t="n">
-        <v>0.7342430149447693</v>
+        <v>0.7732293697205977</v>
       </c>
       <c r="N54" t="n">
-        <v>0.7346746102746635</v>
+        <v>0.7785143337190892</v>
       </c>
       <c r="O54" t="n">
-        <v>0.7342430149447694</v>
+        <v>0.7732293697205977</v>
       </c>
       <c r="P54" t="n">
-        <v>0.7344587492043472</v>
+        <v>0.775862851894549</v>
       </c>
     </row>
     <row r="55">
@@ -3183,37 +3183,37 @@
         <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3835826885458933</v>
+        <v>0.382896283717402</v>
       </c>
       <c r="H55" t="n">
-        <v>0.8225649350649351</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="I55" t="n">
-        <v>0.825754793684191</v>
+        <v>0.8266161601950088</v>
       </c>
       <c r="J55" t="n">
-        <v>0.8237346097220054</v>
+        <v>0.8239723916604716</v>
       </c>
       <c r="K55" t="n">
-        <v>0.8246075466930504</v>
+        <v>0.8251485014325465</v>
       </c>
       <c r="L55" t="n">
-        <v>0.3761237611090942</v>
+        <v>0.3777423532467181</v>
       </c>
       <c r="M55" t="n">
-        <v>0.8235867446393762</v>
+        <v>0.8219623131903834</v>
       </c>
       <c r="N55" t="n">
-        <v>0.8264048121181974</v>
+        <v>0.8261311368141491</v>
       </c>
       <c r="O55" t="n">
-        <v>0.8235867446393762</v>
+        <v>0.8219623131903833</v>
       </c>
       <c r="P55" t="n">
-        <v>0.8249933718500132</v>
+        <v>0.8240414525189594</v>
       </c>
     </row>
     <row r="56">
@@ -3233,37 +3233,37 @@
         <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G56" t="n">
-        <v>0.3793721805397107</v>
+        <v>0.3785106286790629</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8265692640692641</v>
+        <v>0.8255140692640693</v>
       </c>
       <c r="I56" t="n">
-        <v>0.8301988594582728</v>
+        <v>0.8290774563210136</v>
       </c>
       <c r="J56" t="n">
-        <v>0.8276950917519849</v>
+        <v>0.8269619843534842</v>
       </c>
       <c r="K56" t="n">
-        <v>0.8287982527620731</v>
+        <v>0.827860816840812</v>
       </c>
       <c r="L56" t="n">
-        <v>0.3762901958011829</v>
+        <v>0.3778479739418688</v>
       </c>
       <c r="M56" t="n">
-        <v>0.8196881091617934</v>
+        <v>0.8203378817413906</v>
       </c>
       <c r="N56" t="n">
-        <v>0.8247960769914451</v>
+        <v>0.8246318659314253</v>
       </c>
       <c r="O56" t="n">
-        <v>0.8196881091617934</v>
+        <v>0.8203378817413904</v>
       </c>
       <c r="P56" t="n">
-        <v>0.8222341600920492</v>
+        <v>0.8224792693867666</v>
       </c>
     </row>
     <row r="57">
@@ -3283,37 +3283,37 @@
         <v>2</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>0.3772732485776947</v>
+        <v>0.3748570672141747</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8270562770562772</v>
+        <v>0.8264069264069265</v>
       </c>
       <c r="I57" t="n">
-        <v>0.8313050741754096</v>
+        <v>0.8313125421523062</v>
       </c>
       <c r="J57" t="n">
-        <v>0.8287087230906236</v>
+        <v>0.8278349189490776</v>
       </c>
       <c r="K57" t="n">
-        <v>0.8298470666068712</v>
+        <v>0.8293897304887172</v>
       </c>
       <c r="L57" t="n">
-        <v>0.3775816798666355</v>
+        <v>0.3750211286804322</v>
       </c>
       <c r="M57" t="n">
-        <v>0.8200129954515919</v>
+        <v>0.8239116309291747</v>
       </c>
       <c r="N57" t="n">
-        <v>0.8263225306482688</v>
+        <v>0.8322635270475989</v>
       </c>
       <c r="O57" t="n">
-        <v>0.820012995451592</v>
+        <v>0.8239116309291747</v>
       </c>
       <c r="P57" t="n">
-        <v>0.8231556724906954</v>
+        <v>0.8280665201745177</v>
       </c>
     </row>
     <row r="58">
@@ -3333,37 +3333,37 @@
         <v>2</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G58" t="n">
-        <v>0.4170773658788105</v>
+        <v>0.4502196188848486</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8071699134199135</v>
+        <v>0.7971320346320346</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8106614710131689</v>
+        <v>0.8007167865481953</v>
       </c>
       <c r="J58" t="n">
-        <v>0.8080588329742583</v>
+        <v>0.798116733221094</v>
       </c>
       <c r="K58" t="n">
-        <v>0.8092198262626028</v>
+        <v>0.7992685277384118</v>
       </c>
       <c r="L58" t="n">
-        <v>0.4116206936645893</v>
+        <v>0.4468116803680602</v>
       </c>
       <c r="M58" t="n">
-        <v>0.8109161793372319</v>
+        <v>0.7998700454840806</v>
       </c>
       <c r="N58" t="n">
-        <v>0.8131505884664239</v>
+        <v>0.8020923849590212</v>
       </c>
       <c r="O58" t="n">
-        <v>0.8109161793372319</v>
+        <v>0.7998700454840806</v>
       </c>
       <c r="P58" t="n">
-        <v>0.8120318468393575</v>
+        <v>0.8009796737394761</v>
       </c>
     </row>
     <row r="59">
@@ -3383,37 +3383,37 @@
         <v>2</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G59" t="n">
-        <v>0.3780674011331092</v>
+        <v>0.3771908429679675</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8253246753246753</v>
+        <v>0.825487012987013</v>
       </c>
       <c r="I59" t="n">
-        <v>0.8290271795279522</v>
+        <v>0.8288840236136593</v>
       </c>
       <c r="J59" t="n">
-        <v>0.8264739399501674</v>
+        <v>0.8263252639388596</v>
       </c>
       <c r="K59" t="n">
-        <v>0.8276010522968363</v>
+        <v>0.8274571710480447</v>
       </c>
       <c r="L59" t="n">
-        <v>0.3770925925405863</v>
+        <v>0.3795749839893894</v>
       </c>
       <c r="M59" t="n">
-        <v>0.8209876543209876</v>
+        <v>0.8206627680311891</v>
       </c>
       <c r="N59" t="n">
-        <v>0.8257977538105001</v>
+        <v>0.8249120337790288</v>
       </c>
       <c r="O59" t="n">
-        <v>0.8209876543209876</v>
+        <v>0.8206627680311891</v>
       </c>
       <c r="P59" t="n">
-        <v>0.823385679150116</v>
+        <v>0.8227819145974139</v>
       </c>
     </row>
     <row r="60">
@@ -3433,37 +3433,37 @@
         <v>2</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>0.3745817549172785</v>
+        <v>0.3728618100109617</v>
       </c>
       <c r="H60" t="n">
-        <v>0.8279491341991343</v>
+        <v>0.8277597402597403</v>
       </c>
       <c r="I60" t="n">
-        <v>0.8315392952460109</v>
+        <v>0.8312678773366049</v>
       </c>
       <c r="J60" t="n">
-        <v>0.8293804268626643</v>
+        <v>0.8292955690348333</v>
       </c>
       <c r="K60" t="n">
-        <v>0.8302967196941768</v>
+        <v>0.8301302938778488</v>
       </c>
       <c r="L60" t="n">
-        <v>0.3755058773644762</v>
+        <v>0.3739215626317312</v>
       </c>
       <c r="M60" t="n">
-        <v>0.8239116309291747</v>
+        <v>0.825211176088369</v>
       </c>
       <c r="N60" t="n">
-        <v>0.8299383681029666</v>
+        <v>0.8307977467242083</v>
       </c>
       <c r="O60" t="n">
-        <v>0.8239116309291747</v>
+        <v>0.825211176088369</v>
       </c>
       <c r="P60" t="n">
-        <v>0.8269140186045663</v>
+        <v>0.8279950382168845</v>
       </c>
     </row>
     <row r="61">
@@ -3483,37 +3483,37 @@
         <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G61" t="n">
-        <v>0.3671328542373192</v>
+        <v>0.3672456089527745</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8293560606060606</v>
+        <v>0.8320616883116884</v>
       </c>
       <c r="I61" t="n">
-        <v>0.8339941072813429</v>
+        <v>0.8362324477712894</v>
       </c>
       <c r="J61" t="n">
-        <v>0.830765372168653</v>
+        <v>0.8330618532927742</v>
       </c>
       <c r="K61" t="n">
-        <v>0.832207869207346</v>
+        <v>0.8344784009676706</v>
       </c>
       <c r="L61" t="n">
-        <v>0.3771312962936595</v>
+        <v>0.3715156108310435</v>
       </c>
       <c r="M61" t="n">
-        <v>0.8206627680311891</v>
+        <v>0.8248862897985705</v>
       </c>
       <c r="N61" t="n">
-        <v>0.8299351377979693</v>
+        <v>0.8318538273376828</v>
       </c>
       <c r="O61" t="n">
-        <v>0.8206627680311891</v>
+        <v>0.8248862897985705</v>
       </c>
       <c r="P61" t="n">
-        <v>0.8252729087639147</v>
+        <v>0.8283554073325898</v>
       </c>
     </row>
     <row r="62">
@@ -3533,37 +3533,37 @@
         <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>0.3935327041475504</v>
+        <v>0.3898430148297194</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8188582251082251</v>
+        <v>0.8202922077922078</v>
       </c>
       <c r="I62" t="n">
-        <v>0.8226914451752774</v>
+        <v>0.824071716261766</v>
       </c>
       <c r="J62" t="n">
-        <v>0.8196802906212162</v>
+        <v>0.8212784930606203</v>
       </c>
       <c r="K62" t="n">
-        <v>0.8210311161504549</v>
+        <v>0.8225223690736919</v>
       </c>
       <c r="L62" t="n">
-        <v>0.3896885484839068</v>
+        <v>0.385917305435426</v>
       </c>
       <c r="M62" t="n">
-        <v>0.8196881091617934</v>
+        <v>0.8164392462638077</v>
       </c>
       <c r="N62" t="n">
-        <v>0.8232254759668745</v>
+        <v>0.8194334106174775</v>
       </c>
       <c r="O62" t="n">
-        <v>0.8196881091617934</v>
+        <v>0.8164392462638077</v>
       </c>
       <c r="P62" t="n">
-        <v>0.8214529844018027</v>
+        <v>0.8179335883067638</v>
       </c>
     </row>
     <row r="63">
@@ -3583,37 +3583,37 @@
         <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G63" t="n">
-        <v>0.374295349730613</v>
+        <v>0.3736735171214751</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8267045454545454</v>
+        <v>0.8272997835497836</v>
       </c>
       <c r="I63" t="n">
-        <v>0.8294498212964149</v>
+        <v>0.8296750044661918</v>
       </c>
       <c r="J63" t="n">
-        <v>0.827759458229823</v>
+        <v>0.8279814349837854</v>
       </c>
       <c r="K63" t="n">
-        <v>0.8284651584981313</v>
+        <v>0.8287049204496116</v>
       </c>
       <c r="L63" t="n">
-        <v>0.3785665025265737</v>
+        <v>0.3749408907944982</v>
       </c>
       <c r="M63" t="n">
-        <v>0.8180636777128005</v>
+        <v>0.8229369720597791</v>
       </c>
       <c r="N63" t="n">
-        <v>0.8229865020079994</v>
+        <v>0.8266921397379913</v>
       </c>
       <c r="O63" t="n">
-        <v>0.8180636777128005</v>
+        <v>0.822936972059779</v>
       </c>
       <c r="P63" t="n">
-        <v>0.8205177061132907</v>
+        <v>0.824810281821703</v>
       </c>
     </row>
     <row r="64">
@@ -3633,37 +3633,37 @@
         <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>0.3693899449307561</v>
+        <v>0.369228379115769</v>
       </c>
       <c r="H64" t="n">
-        <v>0.8301136363636363</v>
+        <v>0.828517316017316</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8342041677512542</v>
+        <v>0.8319750857188054</v>
       </c>
       <c r="J64" t="n">
-        <v>0.8314439170921406</v>
+        <v>0.829920698950421</v>
       </c>
       <c r="K64" t="n">
-        <v>0.832644850237912</v>
+        <v>0.8307841999993874</v>
       </c>
       <c r="L64" t="n">
-        <v>0.3804809007703127</v>
+        <v>0.3773951441058039</v>
       </c>
       <c r="M64" t="n">
-        <v>0.8200129954515919</v>
+        <v>0.8183885640025991</v>
       </c>
       <c r="N64" t="n">
-        <v>0.8262028759967929</v>
+        <v>0.8235834775086506</v>
       </c>
       <c r="O64" t="n">
-        <v>0.8200129954515919</v>
+        <v>0.8183885640025991</v>
       </c>
       <c r="P64" t="n">
-        <v>0.8230962985440909</v>
+        <v>0.820977802854938</v>
       </c>
     </row>
     <row r="65">
@@ -3683,37 +3683,37 @@
         <v>2</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G65" t="n">
-        <v>0.3646612747434997</v>
+        <v>0.3616188312609677</v>
       </c>
       <c r="H65" t="n">
-        <v>0.830952380952381</v>
+        <v>0.8339285714285715</v>
       </c>
       <c r="I65" t="n">
-        <v>0.8349689626338727</v>
+        <v>0.8386130428331779</v>
       </c>
       <c r="J65" t="n">
-        <v>0.8319936234035473</v>
+        <v>0.8351048367234176</v>
       </c>
       <c r="K65" t="n">
-        <v>0.8333124884376467</v>
+        <v>0.8366796458198225</v>
       </c>
       <c r="L65" t="n">
-        <v>0.382439404937234</v>
+        <v>0.3798296807494029</v>
       </c>
       <c r="M65" t="n">
-        <v>0.8167641325536062</v>
+        <v>0.8180636777128005</v>
       </c>
       <c r="N65" t="n">
-        <v>0.8252089169694025</v>
+        <v>0.8262647873416241</v>
       </c>
       <c r="O65" t="n">
-        <v>0.8167641325536062</v>
+        <v>0.8180636777128005</v>
       </c>
       <c r="P65" t="n">
-        <v>0.8209648086974526</v>
+        <v>0.8221437809566858</v>
       </c>
     </row>
   </sheetData>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-13 10:15:59</t>
+          <t>2025-11-15 18:02:04</t>
         </is>
       </c>
     </row>
